--- a/Tijdscomplexiteit algoritmen.xlsx
+++ b/Tijdscomplexiteit algoritmen.xlsx
@@ -9,10 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Algoritme2" sheetId="1" r:id="rId1"/>
+    <sheet name="s &lt;= 0,2" sheetId="1" r:id="rId1"/>
+    <sheet name="s &lt;= 0,15" sheetId="2" r:id="rId2"/>
+    <sheet name="s &lt;= 0,1" sheetId="3" r:id="rId3"/>
+    <sheet name="s &lt;= 0,05" sheetId="4" r:id="rId4"/>
+    <sheet name="s &lt;= 0,01" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,12 +28,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
-    <t>Aantal rechthoeken</t>
+    <t>N</t>
   </si>
   <si>
-    <t>Tijd (ms)</t>
+    <t>Algoritme1</t>
+  </si>
+  <si>
+    <t>Algoritme2</t>
+  </si>
+  <si>
+    <t>Algoritme3</t>
   </si>
 </sst>
 </file>
@@ -78,9 +88,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -114,6 +125,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Doubling Ratio</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> (s = 0,2)</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -148,25 +189,27 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Algoritme2!$B$1</c:f>
+              <c:f>'s &lt;= 0,2'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tijd (ms)</c:v>
+                  <c:v>Algoritme1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -188,7 +231,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Algoritme2!$A$2:$A$39</c:f>
+              <c:f>'s &lt;= 0,2'!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -199,234 +242,416 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>200</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Algoritme2!$B$2:$B$39</c:f>
+              <c:f>'s &lt;= 0,2'!$B$2:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>1.0347170000000001</c:v>
+                  <c:v>5.2249999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.211991</c:v>
+                  <c:v>7.2308999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.25491</c:v>
+                  <c:v>5.9247000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.314157</c:v>
+                  <c:v>0.229523</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.312757</c:v>
+                  <c:v>0.78746899999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3258190000000001</c:v>
+                  <c:v>1.999463</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.343547</c:v>
+                  <c:v>2.707627</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3766689999999999</c:v>
+                  <c:v>7.5691309999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.498427</c:v>
+                  <c:v>24.638746000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5628059999999999</c:v>
+                  <c:v>63.003160999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6584399999999999</c:v>
+                  <c:v>91.684218999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1944599999999999</c:v>
+                  <c:v>343.37123700000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6754310000000001</c:v>
+                  <c:v>1505.314253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.11395</c:v>
+                  <c:v>6761.7186240000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.489023</c:v>
+                  <c:v>26432.905309999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.311013</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.0051779999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.6433629999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.2451600000000003</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.9696480000000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.7356569999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.8854069999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.1149290000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.6322880000000008</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.8440829999999995</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.8604109999999991</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.2947310000000005</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.4766689999999993</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9.6474119999999992</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10.095727</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>10.417619</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10.555239</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10.788961</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>11.589024</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>11.972028</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12.322376999999999</c:v>
+                  <c:v>164165.51182000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'s &lt;= 0,2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,2'!$A$2:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,2'!$C$2:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1.3043629999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4845E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1375999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18660399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67130800000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95681300000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7564120000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5102929999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2703660000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.569177</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.447932000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>117.457052</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>489.095553</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3015.1970430000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9388.0965209999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80887.940938999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'s &lt;= 0,2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,2'!$A$2:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,2'!$D$2:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>2.336284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22065899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.383938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78980300000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3866670000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9130889999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.504753</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.314871</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.028084</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.874578</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.619641999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>351.91957300000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1339.7156620000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6260.5180600000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28734.760856000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>141693.69534599999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -436,11 +661,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="417551168"/>
-        <c:axId val="417546464"/>
+        <c:axId val="360781160"/>
+        <c:axId val="360775672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="417551168"/>
+        <c:axId val="360781160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -497,12 +722,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417546464"/>
+        <c:crossAx val="360775672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="417546464"/>
+        <c:axId val="360775672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -559,7 +784,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417551168"/>
+        <c:crossAx val="360781160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -571,6 +796,3735 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'s &lt;= 0,15'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,15'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,15'!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4.7378999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.106058</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3558000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26643299999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79963600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9856090000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.933807000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.726059999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113.781239</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.582574999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.906364999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>408.01519200000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1454.1016790000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7667.1212089999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28622.818766</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>156327.78784500001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'s &lt;= 0,15'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,15'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,15'!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.4310290000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5347E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4370000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20044000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41137000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.200229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.482952</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.886756999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.329739999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.361609999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.103532000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>86.558007000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>429.14488799999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1494.606849</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8161.4830760000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51911.735822000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'s &lt;= 0,15'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,15'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,15'!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.5580020000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8042000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0087E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61219800000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5650280000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.407826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.201532</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.212903999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.692751999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.801291999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.437021000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>211.47917699999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>843.23012500000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3344.624632</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17216.412950000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82534.662872999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="360784296"/>
+        <c:axId val="362572976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="360784296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="362572976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="362572976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="360784296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'s &lt;= 0,1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,1'!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,1'!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.1742000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.118521</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3591E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.208097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77478499999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8537840000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.196705999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.823642999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.865997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.886585</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.595815000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>325.89356700000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1315.0122530000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5840.577029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25220.320475</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>113910.062242</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>496256.82488199999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'s &lt;= 0,1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,1'!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,1'!$C$2:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.5301340000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3358999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2826000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16738700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83777500000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5567570000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5804449999999992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.876308999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.428423</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.729158000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.802503000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>212.542969</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1141.7364829999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4654.6989160000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24848.295257999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128314.746982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'s &lt;= 0,1'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,1'!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,1'!$D$2:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2.6073309999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35000199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17385100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43915399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97164399999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7313719999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2828990000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.152196000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.502510999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.123844000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.983138999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>113.014413</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>433.94831299999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1640.230577</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7914.8529200000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32709.517352999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>209148.91262700001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="362570232"/>
+        <c:axId val="362573368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="362570232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="362573368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="362573368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="362570232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'s &lt;= 0,1'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,1'!$F$2:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,1'!$G$2:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4.1986000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0240000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2451999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16794300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55841300000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8539129999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6775009999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8093839999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.343992999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.380405000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.306870000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200.04898399999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>885.34714199999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3695.6766149999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16585.345043000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78726.221382000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>479312.58388499997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'s &lt;= 0,1'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,1'!$F$2:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,1'!$H$2:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.056646</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0647E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5718000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.132489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30229899999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70116500000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3510139999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3437480000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2093929999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.995393</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.5250109999999992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.976896</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>123.677035</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>577.034627</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2363.9056249999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15036.873914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>119613.37018699999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'s &lt;= 0,1'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,1'!$F$2:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,1'!$I$2:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.8473809999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8982999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3039000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.420792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3323529999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0834350000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0203160000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3344059999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6581639999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.052949000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.851603000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.451244000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>307.63001000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1143.730916</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4923.8883640000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34791.604678999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>193968.09442099999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="409059904"/>
+        <c:axId val="409059120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="409059904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409059120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="409059120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409059904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'s &lt;= 0,05'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,05'!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,05'!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4.827E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1351999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3213000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29483399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74216199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8262830000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.911214999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.814880000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.167935</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.910733</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.457324999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>306.443713</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1262.5204000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5561.7407620000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23337.365071</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102533.17954500001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>399678.28333200002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'s &lt;= 0,05'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,05'!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,05'!$C$2:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.402379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3004000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4343000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19470599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30050300000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69754700000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6837249999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6982330000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.849119</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.070788</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.081652999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.690255000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.507769999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>256.19227799999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1150.2912200000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6047.9291149999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33905.648400999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'s &lt;= 0,05'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,05'!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,05'!$D$2:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2.5489830000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8881000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0379000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64754400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72908499999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.909762</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8308359999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.433488000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.363814999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.029266999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.109684999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57.897345999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>114.363812</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>449.21737999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2153.689746</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7986.3196770000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39671.552448000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="409062648"/>
+        <c:axId val="409066960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="409062648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409066960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="409066960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409062648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'s &lt;= 0,01'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,01'!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,01'!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4.8682999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7720000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4110999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26990599999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71288499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8364050000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.581353</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.028768999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.090992999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.020084000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.135257999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>301.78080499999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1210.980397</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4693.4935349999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21626.335812000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99777.367140000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>467428.64517999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'s &lt;= 0,01'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,01'!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,01'!$C$2:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.4109750000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6552999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6696999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.162078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30099500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66696599999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.325904</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.97289</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2250259999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5321210000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8146819999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.893321</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.530649</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42.334212000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>158.793631</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>641.46601899999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2795.2289209999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'s &lt;= 0,01'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,01'!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,01'!$D$2:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2.547282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1573000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8225999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32250699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76685000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1050869999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7680030000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8530990000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.062505999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.448158999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53.355504000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.004382</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41.392315000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.575001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>143.722005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>554.38410099999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1846.660789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="358174392"/>
+        <c:axId val="358173216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="358174392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358173216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="358173216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358174392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -648,6 +4602,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1164,24 +5318,2774 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Grafiek 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1462,322 +8366,1529 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="2" max="4" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1.0347170000000001</v>
+      <c r="B2" s="2">
+        <v>5.2249999999999998E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.3043629999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.336284</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" s="2">
+        <v>7.2308999999999998E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6.4845E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.22065899999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.9247000000000001E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7.1375999999999995E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.383938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.229523</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.18660399999999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.78980300000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.78746899999999997</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.67130800000000002</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.3866670000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.999463</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.95681300000000002</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.9130889999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.707627</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.7564120000000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7.504753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7.5691309999999996</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.5102929999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>14.314871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10" s="2">
+        <v>24.638746000000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.2703660000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>24.028084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>512</v>
+      </c>
+      <c r="B11" s="2">
+        <v>63.003160999999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>19.569177</v>
+      </c>
+      <c r="D11" s="2">
+        <v>37.874578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1024</v>
+      </c>
+      <c r="B12" s="2">
+        <v>91.684218999999999</v>
+      </c>
+      <c r="C12" s="2">
+        <v>31.447932000000002</v>
+      </c>
+      <c r="D12" s="2">
+        <v>90.619641999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2048</v>
+      </c>
+      <c r="B13" s="2">
+        <v>343.37123700000001</v>
+      </c>
+      <c r="C13" s="2">
+        <v>117.457052</v>
+      </c>
+      <c r="D13" s="2">
+        <v>351.91957300000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4096</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1505.314253</v>
+      </c>
+      <c r="C14" s="2">
+        <v>489.095553</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1339.7156620000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8192</v>
+      </c>
+      <c r="B15" s="2">
+        <v>6761.7186240000001</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3015.1970430000001</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6260.5180600000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16384</v>
+      </c>
+      <c r="B16" s="2">
+        <v>26432.905309999998</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9388.0965209999995</v>
+      </c>
+      <c r="D16" s="2">
+        <v>28734.760856000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>32768</v>
+      </c>
+      <c r="B17" s="2">
+        <v>164165.51182000001</v>
+      </c>
+      <c r="C17" s="2">
+        <v>80887.940938999993</v>
+      </c>
+      <c r="D17" s="2">
+        <v>141693.69534599999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4.7378999999999998E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.4310290000000001</v>
+      </c>
+      <c r="D2">
+        <v>2.5580020000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3">
-        <v>1.211991</v>
+        <v>0.106058</v>
+      </c>
+      <c r="C3">
+        <v>5.5347E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.8042000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>5.3558000000000001E-2</v>
+      </c>
+      <c r="C4">
+        <v>5.4370000000000002E-2</v>
+      </c>
+      <c r="D4">
+        <v>9.0087E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.26643299999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.20044000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.61219800000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0.79963600000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.41137000000000001</v>
+      </c>
+      <c r="D6">
+        <v>1.5650280000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>2.9856090000000002</v>
+      </c>
+      <c r="C7">
+        <v>1.200229</v>
+      </c>
+      <c r="D7">
+        <v>4.407826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>16.933807000000002</v>
+      </c>
+      <c r="C8">
+        <v>3.482952</v>
+      </c>
+      <c r="D8">
+        <v>15.201532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>59.726059999999997</v>
+      </c>
+      <c r="C9">
+        <v>16.886756999999999</v>
+      </c>
+      <c r="D9">
+        <v>64.212903999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>113.781239</v>
+      </c>
+      <c r="C10">
+        <v>12.329739999999999</v>
+      </c>
+      <c r="D10">
+        <v>87.692751999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>512</v>
+      </c>
+      <c r="B11">
+        <v>31.582574999999999</v>
+      </c>
+      <c r="C11">
+        <v>16.361609999999999</v>
+      </c>
+      <c r="D11">
+        <v>48.801291999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1024</v>
+      </c>
+      <c r="B12">
+        <v>87.906364999999994</v>
+      </c>
+      <c r="C12">
+        <v>24.103532000000001</v>
+      </c>
+      <c r="D12">
+        <v>67.437021000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2048</v>
+      </c>
+      <c r="B13">
+        <v>408.01519200000001</v>
+      </c>
+      <c r="C13">
+        <v>86.558007000000003</v>
+      </c>
+      <c r="D13">
+        <v>211.47917699999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4096</v>
+      </c>
+      <c r="B14">
+        <v>1454.1016790000001</v>
+      </c>
+      <c r="C14">
+        <v>429.14488799999998</v>
+      </c>
+      <c r="D14">
+        <v>843.23012500000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8192</v>
+      </c>
+      <c r="B15">
+        <v>7667.1212089999999</v>
+      </c>
+      <c r="C15">
+        <v>1494.606849</v>
+      </c>
+      <c r="D15">
+        <v>3344.624632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16384</v>
+      </c>
+      <c r="B16">
+        <v>28622.818766</v>
+      </c>
+      <c r="C16">
+        <v>8161.4830760000004</v>
+      </c>
+      <c r="D16">
+        <v>17216.412950000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>32768</v>
+      </c>
+      <c r="B17">
+        <v>156327.78784500001</v>
+      </c>
+      <c r="C17">
+        <v>51911.735822000002</v>
+      </c>
+      <c r="D17">
+        <v>82534.662872999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5.1742000000000003E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.5301340000000001</v>
+      </c>
+      <c r="D2">
+        <v>2.6073309999999998</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>4.1986000000000002E-2</v>
+      </c>
+      <c r="H2">
+        <v>1.056646</v>
+      </c>
+      <c r="I2">
+        <v>1.8473809999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.118521</v>
+      </c>
+      <c r="C3">
+        <v>9.3358999999999998E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.35000199999999998</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>8.0240000000000006E-2</v>
+      </c>
+      <c r="H3">
+        <v>6.0647E-2</v>
+      </c>
+      <c r="I3">
+        <v>4.8982999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
       <c r="B4">
-        <v>1.25491</v>
+        <v>5.3591E-2</v>
+      </c>
+      <c r="C4">
+        <v>6.2826000000000007E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.17385100000000001</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>4.2451999999999997E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.5718000000000002E-2</v>
+      </c>
+      <c r="I4">
+        <v>8.3039000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.208097</v>
+      </c>
+      <c r="C5">
+        <v>0.16738700000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.43915399999999999</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>0.16794300000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.132489</v>
+      </c>
+      <c r="I5">
+        <v>0.420792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0.77478499999999995</v>
+      </c>
+      <c r="C6">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.97164399999999995</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>0.55841300000000005</v>
+      </c>
+      <c r="H6">
+        <v>0.30229899999999998</v>
+      </c>
+      <c r="I6">
+        <v>1.3323529999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>2.8537840000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.83777500000000005</v>
+      </c>
+      <c r="D7">
+        <v>2.7313719999999999</v>
+      </c>
+      <c r="F7">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>1.8539129999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.70116500000000004</v>
+      </c>
+      <c r="I7">
+        <v>2.0834350000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>17.196705999999999</v>
+      </c>
+      <c r="C8">
+        <v>2.5567570000000002</v>
+      </c>
+      <c r="D8">
+        <v>9.2828990000000005</v>
+      </c>
+      <c r="F8">
+        <v>64</v>
+      </c>
+      <c r="G8">
+        <v>3.6775009999999999</v>
+      </c>
+      <c r="H8">
+        <v>1.3510139999999999</v>
+      </c>
+      <c r="I8">
+        <v>6.0203160000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>52.823642999999997</v>
+      </c>
+      <c r="C9">
+        <v>8.5804449999999992</v>
+      </c>
+      <c r="D9">
+        <v>38.152196000000004</v>
+      </c>
+      <c r="F9">
+        <v>128</v>
+      </c>
+      <c r="G9">
+        <v>7.8093839999999997</v>
+      </c>
+      <c r="H9">
+        <v>2.3437480000000002</v>
+      </c>
+      <c r="I9">
+        <v>9.3344059999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>38.865997</v>
+      </c>
+      <c r="C10">
+        <v>14.876308999999999</v>
+      </c>
+      <c r="D10">
+        <v>77.502510999999998</v>
+      </c>
+      <c r="F10">
+        <v>256</v>
+      </c>
+      <c r="G10">
+        <v>15.343992999999999</v>
+      </c>
+      <c r="H10">
+        <v>2.2093929999999999</v>
+      </c>
+      <c r="I10">
+        <v>9.6581639999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>512</v>
+      </c>
+      <c r="B11">
+        <v>22.886585</v>
+      </c>
+      <c r="C11">
+        <v>10.428423</v>
+      </c>
+      <c r="D11">
+        <v>64.123844000000005</v>
+      </c>
+      <c r="F11">
+        <v>512</v>
+      </c>
+      <c r="G11">
+        <v>41.380405000000003</v>
+      </c>
+      <c r="H11">
+        <v>4.995393</v>
+      </c>
+      <c r="I11">
+        <v>20.052949000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1024</v>
+      </c>
+      <c r="B12">
+        <v>86.595815000000002</v>
+      </c>
+      <c r="C12">
+        <v>18.729158000000002</v>
+      </c>
+      <c r="D12">
+        <v>87.983138999999994</v>
+      </c>
+      <c r="F12">
+        <v>1024</v>
+      </c>
+      <c r="G12">
+        <v>56.306870000000004</v>
+      </c>
+      <c r="H12">
+        <v>8.5250109999999992</v>
+      </c>
+      <c r="I12">
+        <v>27.851603000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2048</v>
+      </c>
+      <c r="B13">
+        <v>325.89356700000002</v>
+      </c>
+      <c r="C13">
+        <v>53.802503000000002</v>
+      </c>
+      <c r="D13">
+        <v>113.014413</v>
+      </c>
+      <c r="F13">
+        <v>2048</v>
+      </c>
+      <c r="G13">
+        <v>200.04898399999999</v>
+      </c>
+      <c r="H13">
+        <v>26.976896</v>
+      </c>
+      <c r="I13">
+        <v>83.451244000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4096</v>
+      </c>
+      <c r="B14">
+        <v>1315.0122530000001</v>
+      </c>
+      <c r="C14">
+        <v>212.542969</v>
+      </c>
+      <c r="D14">
+        <v>433.94831299999998</v>
+      </c>
+      <c r="F14">
+        <v>4096</v>
+      </c>
+      <c r="G14">
+        <v>885.34714199999996</v>
+      </c>
+      <c r="H14">
+        <v>123.677035</v>
+      </c>
+      <c r="I14">
+        <v>307.63001000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8192</v>
+      </c>
+      <c r="B15">
+        <v>5840.577029</v>
+      </c>
+      <c r="C15">
+        <v>1141.7364829999999</v>
+      </c>
+      <c r="D15">
+        <v>1640.230577</v>
+      </c>
+      <c r="F15">
+        <v>8192</v>
+      </c>
+      <c r="G15">
+        <v>3695.6766149999999</v>
+      </c>
+      <c r="H15">
+        <v>577.034627</v>
+      </c>
+      <c r="I15">
+        <v>1143.730916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16384</v>
+      </c>
+      <c r="B16">
+        <v>25220.320475</v>
+      </c>
+      <c r="C16">
+        <v>4654.6989160000003</v>
+      </c>
+      <c r="D16">
+        <v>7914.8529200000003</v>
+      </c>
+      <c r="F16">
+        <v>16384</v>
+      </c>
+      <c r="G16">
+        <v>16585.345043000001</v>
+      </c>
+      <c r="H16">
+        <v>2363.9056249999999</v>
+      </c>
+      <c r="I16">
+        <v>4923.8883640000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>32768</v>
+      </c>
+      <c r="B17">
+        <v>113910.062242</v>
+      </c>
+      <c r="C17">
+        <v>24848.295257999998</v>
+      </c>
+      <c r="D17">
+        <v>32709.517352999999</v>
+      </c>
+      <c r="F17">
+        <v>32768</v>
+      </c>
+      <c r="G17">
+        <v>78726.221382000003</v>
+      </c>
+      <c r="H17">
+        <v>15036.873914</v>
+      </c>
+      <c r="I17">
+        <v>34791.604678999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>65536</v>
+      </c>
+      <c r="B18">
+        <v>496256.82488199999</v>
+      </c>
+      <c r="C18">
+        <v>128314.746982</v>
+      </c>
+      <c r="D18">
+        <v>209148.91262700001</v>
+      </c>
+      <c r="F18">
+        <v>65536</v>
+      </c>
+      <c r="G18">
+        <v>479312.58388499997</v>
+      </c>
+      <c r="H18">
+        <v>119613.37018699999</v>
+      </c>
+      <c r="I18">
+        <v>193968.09442099999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4.827E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.402379</v>
+      </c>
+      <c r="D2">
+        <v>2.5489830000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6.1351999999999997E-2</v>
+      </c>
+      <c r="C3">
+        <v>5.3004000000000003E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.8881000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>5.3213000000000003E-2</v>
+      </c>
+      <c r="C4">
+        <v>5.4343000000000002E-2</v>
+      </c>
+      <c r="D4">
+        <v>9.0379000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>8</v>
+      </c>
       <c r="B5">
-        <v>1.314157</v>
+        <v>0.29483399999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.19470599999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.64754400000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>1.312757</v>
+        <v>0.74216199999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.30050300000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.72908499999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>1.3258190000000001</v>
+        <v>2.8262830000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.69754700000000003</v>
+      </c>
+      <c r="D7">
+        <v>1.909762</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B8">
-        <v>1.343547</v>
+        <v>17.911214999999999</v>
+      </c>
+      <c r="C8">
+        <v>1.6837249999999999</v>
+      </c>
+      <c r="D8">
+        <v>5.8308359999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>51.814880000000002</v>
+      </c>
+      <c r="C9">
+        <v>5.6982330000000001</v>
+      </c>
+      <c r="D9">
+        <v>22.433488000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>42.167935</v>
+      </c>
+      <c r="C10">
+        <v>9.849119</v>
+      </c>
+      <c r="D10">
+        <v>29.363814999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>512</v>
+      </c>
+      <c r="B11">
+        <v>29.910733</v>
+      </c>
+      <c r="C11">
+        <v>12.070788</v>
+      </c>
+      <c r="D11">
+        <v>57.029266999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1024</v>
+      </c>
+      <c r="B12">
+        <v>71.457324999999997</v>
+      </c>
+      <c r="C12">
+        <v>19.081652999999999</v>
+      </c>
+      <c r="D12">
+        <v>41.109684999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2048</v>
+      </c>
+      <c r="B13">
+        <v>306.443713</v>
+      </c>
+      <c r="C13">
+        <v>21.690255000000001</v>
+      </c>
+      <c r="D13">
+        <v>57.897345999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4096</v>
+      </c>
+      <c r="B14">
+        <v>1262.5204000000001</v>
+      </c>
+      <c r="C14">
+        <v>74.507769999999994</v>
+      </c>
+      <c r="D14">
+        <v>114.363812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8192</v>
+      </c>
+      <c r="B15">
+        <v>5561.7407620000004</v>
+      </c>
+      <c r="C15">
+        <v>256.19227799999999</v>
+      </c>
+      <c r="D15">
+        <v>449.21737999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16384</v>
+      </c>
+      <c r="B16">
+        <v>23337.365071</v>
+      </c>
+      <c r="C16">
+        <v>1150.2912200000001</v>
+      </c>
+      <c r="D16">
+        <v>2153.689746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>32768</v>
+      </c>
+      <c r="B17">
+        <v>102533.17954500001</v>
+      </c>
+      <c r="C17">
+        <v>6047.9291149999999</v>
+      </c>
+      <c r="D17">
+        <v>7986.3196770000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>65536</v>
+      </c>
+      <c r="B18">
+        <v>399678.28333200002</v>
+      </c>
+      <c r="C18">
+        <v>33905.648400999999</v>
+      </c>
+      <c r="D18">
+        <v>39671.552448000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4.8682999999999997E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.4109750000000001</v>
+      </c>
+      <c r="D2">
+        <v>2.547282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6.7720000000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>5.6552999999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>5.1573000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>5.4110999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>5.6696999999999997E-2</v>
+      </c>
+      <c r="D4">
+        <v>8.8225999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>0.26990599999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.162078</v>
+      </c>
+      <c r="D5">
+        <v>0.32250699999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0.71288499999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.30099500000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.76685000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>2.8364050000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.66696599999999995</v>
+      </c>
+      <c r="D7">
+        <v>1.1050869999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>17.581353</v>
+      </c>
+      <c r="C8">
+        <v>1.325904</v>
+      </c>
+      <c r="D8">
+        <v>2.7680030000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>128</v>
+      </c>
       <c r="B9">
-        <v>1.3766689999999999</v>
+        <v>38.028768999999997</v>
+      </c>
+      <c r="C9">
+        <v>2.97289</v>
+      </c>
+      <c r="D9">
+        <v>7.8530990000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>256</v>
       </c>
       <c r="B10">
-        <v>1.498427</v>
+        <v>85.090992999999997</v>
+      </c>
+      <c r="C10">
+        <v>6.2250259999999997</v>
+      </c>
+      <c r="D10">
+        <v>20.062505999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>512</v>
       </c>
       <c r="B11">
-        <v>1.5628059999999999</v>
+        <v>20.020084000000001</v>
+      </c>
+      <c r="C11">
+        <v>4.5321210000000001</v>
+      </c>
+      <c r="D11">
+        <v>33.448158999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>15</v>
+        <v>1024</v>
       </c>
       <c r="B12">
-        <v>1.6584399999999999</v>
+        <v>77.135257999999993</v>
+      </c>
+      <c r="C12">
+        <v>8.8146819999999995</v>
+      </c>
+      <c r="D12">
+        <v>53.355504000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>20</v>
+        <v>2048</v>
       </c>
       <c r="B13">
-        <v>2.1944599999999999</v>
+        <v>301.78080499999999</v>
+      </c>
+      <c r="C13">
+        <v>29.893321</v>
+      </c>
+      <c r="D13">
+        <v>42.004382</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>25</v>
+        <v>4096</v>
       </c>
       <c r="B14">
-        <v>2.6754310000000001</v>
+        <v>1210.980397</v>
+      </c>
+      <c r="C14">
+        <v>26.530649</v>
+      </c>
+      <c r="D14">
+        <v>41.392315000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>30</v>
+        <v>8192</v>
       </c>
       <c r="B15">
-        <v>3.11395</v>
+        <v>4693.4935349999996</v>
+      </c>
+      <c r="C15">
+        <v>42.334212000000001</v>
+      </c>
+      <c r="D15">
+        <v>51.575001</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>35</v>
+        <v>16384</v>
       </c>
       <c r="B16">
-        <v>3.489023</v>
+        <v>21626.335812000001</v>
+      </c>
+      <c r="C16">
+        <v>158.793631</v>
+      </c>
+      <c r="D16">
+        <v>143.722005</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>40</v>
+        <v>32768</v>
       </c>
       <c r="B17">
-        <v>4.311013</v>
+        <v>99777.367140000002</v>
+      </c>
+      <c r="C17">
+        <v>641.46601899999996</v>
+      </c>
+      <c r="D17">
+        <v>554.38410099999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>45</v>
+        <v>65536</v>
       </c>
       <c r="B18">
-        <v>5.0051779999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>50</v>
-      </c>
-      <c r="B19">
-        <v>5.6433629999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>55</v>
-      </c>
-      <c r="B20">
-        <v>6.2451600000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>60</v>
-      </c>
-      <c r="B21">
-        <v>6.9696480000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>65</v>
-      </c>
-      <c r="B22">
-        <v>7.7356569999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>70</v>
-      </c>
-      <c r="B23">
-        <v>7.8854069999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>75</v>
-      </c>
-      <c r="B24">
-        <v>8.1149290000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>80</v>
-      </c>
-      <c r="B25">
-        <v>8.6322880000000008</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>85</v>
-      </c>
-      <c r="B26">
-        <v>8.8440829999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>90</v>
-      </c>
-      <c r="B27">
-        <v>8.8604109999999991</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>95</v>
-      </c>
-      <c r="B28">
-        <v>9.2947310000000005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>100</v>
-      </c>
-      <c r="B29">
-        <v>9.4766689999999993</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>110</v>
-      </c>
-      <c r="B30">
-        <v>9.6474119999999992</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>120</v>
-      </c>
-      <c r="B31">
-        <v>10.095727</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>130</v>
-      </c>
-      <c r="B32">
-        <v>10.417619</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>140</v>
-      </c>
-      <c r="B33">
-        <v>10.555239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>150</v>
-      </c>
-      <c r="B34">
-        <v>10.788961</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>160</v>
-      </c>
-      <c r="B35">
-        <v>11.589024</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>170</v>
-      </c>
-      <c r="B36">
-        <v>11.972028</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>180</v>
-      </c>
-      <c r="B37">
-        <v>12.322376999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>200</v>
+        <v>467428.64517999999</v>
+      </c>
+      <c r="C18">
+        <v>2795.2289209999999</v>
+      </c>
+      <c r="D18">
+        <v>1846.660789</v>
       </c>
     </row>
   </sheetData>

--- a/Tijdscomplexiteit algoritmen.xlsx
+++ b/Tijdscomplexiteit algoritmen.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stijn\Documents\Leuven\Bachelor 2\TMI\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piete_000\Documents\School\Unief\2de bach\Meetkunde voor informatici\Practicum\tmi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="s &lt;= 0,2" sheetId="1" r:id="rId1"/>
     <sheet name="s &lt;= 0,15" sheetId="2" r:id="rId2"/>
     <sheet name="s &lt;= 0,1" sheetId="3" r:id="rId3"/>
-    <sheet name="s &lt;= 0,05" sheetId="4" r:id="rId4"/>
+    <sheet name="s &lt;= 0,5" sheetId="4" r:id="rId4"/>
     <sheet name="s &lt;= 0,01" sheetId="5" r:id="rId5"/>
+    <sheet name="s &lt;= 1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
     <t>N</t>
   </si>
@@ -40,6 +41,9 @@
   </si>
   <si>
     <t>Algoritme3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -88,10 +92,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -144,14 +150,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="nl-BE"/>
-              <a:t>Doubling Ratio</a:t>
+              <a:rPr lang="nl-BE" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Doubeling experiment (max. lengte zijde = 0.2) </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="nl-BE" baseline="0"/>
-              <a:t> (s = 0,2)</a:t>
-            </a:r>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="nl-BE">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -231,10 +237,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,2'!$A$2:$A$39</c:f>
+              <c:f>'s &lt;= 0,2'!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -288,57 +294,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,2'!$B$2:$B$39</c:f>
+              <c:f>'s &lt;= 0,2'!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>5.2249999999999998E-2</c:v>
+                  <c:v>4.7223000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2308999999999998E-2</c:v>
+                  <c:v>6.9347000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9247000000000001E-2</c:v>
+                  <c:v>5.9225E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.229523</c:v>
+                  <c:v>0.35874600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78746899999999997</c:v>
+                  <c:v>0.77075300000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.999463</c:v>
+                  <c:v>3.4476689999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.707627</c:v>
+                  <c:v>16.724685999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5691309999999996</c:v>
+                  <c:v>64.328180000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.638746000000001</c:v>
+                  <c:v>45.292262000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.003160999999999</c:v>
+                  <c:v>28.154897999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>91.684218999999999</c:v>
+                  <c:v>89.458753999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>343.37123700000001</c:v>
+                  <c:v>409.24207899999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1505.314253</c:v>
+                  <c:v>1698.683477</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6761.7186240000001</c:v>
+                  <c:v>8778.2531400000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26432.905309999998</c:v>
+                  <c:v>36192.314450999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>164165.51182000001</c:v>
+                  <c:v>231158.01998899999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,10 +391,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,2'!$A$2:$A$39</c:f>
+              <c:f>'s &lt;= 0,2'!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -442,57 +448,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,2'!$C$2:$C$39</c:f>
+              <c:f>'s &lt;= 0,2'!$C$2:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>1.3043629999999999</c:v>
+                  <c:v>1.427926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4845E-2</c:v>
+                  <c:v>5.5888E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1375999999999995E-2</c:v>
+                  <c:v>6.8627999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18660399999999999</c:v>
+                  <c:v>0.25318400000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67130800000000002</c:v>
+                  <c:v>0.46081499999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95681300000000002</c:v>
+                  <c:v>1.766035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7564120000000001</c:v>
+                  <c:v>3.5092669999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5102929999999999</c:v>
+                  <c:v>17.058319000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.2703660000000001</c:v>
+                  <c:v>16.253195000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.569177</c:v>
+                  <c:v>14.791833</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.447932000000002</c:v>
+                  <c:v>35.258977999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>117.457052</c:v>
+                  <c:v>158.16474700000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>489.095553</c:v>
+                  <c:v>845.33772199999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3015.1970430000001</c:v>
+                  <c:v>2508.9897179999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9388.0965209999995</c:v>
+                  <c:v>20610.072639000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80887.940938999993</c:v>
+                  <c:v>94613.954494000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,10 +545,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,2'!$A$2:$A$39</c:f>
+              <c:f>'s &lt;= 0,2'!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -596,57 +602,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,2'!$D$2:$D$39</c:f>
+              <c:f>'s &lt;= 0,2'!$D$2:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>2.336284</c:v>
+                  <c:v>2.3958879999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22065899999999999</c:v>
+                  <c:v>4.6593000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.383938</c:v>
+                  <c:v>0.30030099999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78980300000000003</c:v>
+                  <c:v>0.67792300000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3866670000000001</c:v>
+                  <c:v>1.8269759999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9130889999999998</c:v>
+                  <c:v>8.3838950000000008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.504753</c:v>
+                  <c:v>16.409811999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.314871</c:v>
+                  <c:v>113.157793</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.028084</c:v>
+                  <c:v>82.311852999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.874578</c:v>
+                  <c:v>65.254551000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90.619641999999999</c:v>
+                  <c:v>109.60528600000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>351.91957300000001</c:v>
+                  <c:v>342.60131000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1339.7156620000001</c:v>
+                  <c:v>1600.68336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6260.5180600000003</c:v>
+                  <c:v>6551.8527519999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28734.760856000001</c:v>
+                  <c:v>32770.112476000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>141693.69534599999</c:v>
+                  <c:v>160632.83349300001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -661,11 +667,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="360781160"/>
-        <c:axId val="360775672"/>
+        <c:axId val="380387520"/>
+        <c:axId val="380389480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="360781160"/>
+        <c:axId val="380387520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,6 +691,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Aantal rechthoeken</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -722,14 +784,15 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360775672"/>
+        <c:crossAx val="380389480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="360775672"/>
+        <c:axId val="380389480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -747,6 +810,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Tijd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" baseline="0"/>
+                  <a:t> in miliseconden</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -784,7 +908,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360781160"/>
+        <c:crossAx val="380387520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -960,54 +1084,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1017,54 +1093,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>4.7378999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.106058</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.3558000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.26643299999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.79963600000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9856090000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.933807000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>59.726059999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>113.781239</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>31.582574999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>87.906364999999994</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>408.01519200000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1454.1016790000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7667.1212089999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28622.818766</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>156327.78784500001</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1114,54 +1142,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1171,54 +1151,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1.4310290000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5347E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4370000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20044000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.41137000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.200229</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.482952</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.886756999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.329739999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.361609999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24.103532000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>86.558007000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>429.14488799999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1494.606849</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8161.4830760000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>51911.735822000002</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1268,54 +1200,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1325,54 +1209,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>2.5580020000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.8042000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.0087E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.61219800000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5650280000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.407826</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.201532</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64.212903999999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>87.692751999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>48.801291999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67.437021000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>211.47917699999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>843.23012500000004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3344.624632</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17216.412950000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>82534.662872999994</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1386,11 +1222,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="360784296"/>
-        <c:axId val="362572976"/>
+        <c:axId val="381393168"/>
+        <c:axId val="381393560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="360784296"/>
+        <c:axId val="381393168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,12 +1283,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362572976"/>
+        <c:crossAx val="381393560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="362572976"/>
+        <c:axId val="381393560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,7 +1345,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360784296"/>
+        <c:crossAx val="381393168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1605,6 +1441,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Doubeling experiment (max. lengte zijde = 0.1) </a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1727,15 +1593,6 @@
                 <c:pt idx="13">
                   <c:v>8192</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65536</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1746,55 +1603,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>5.1742000000000003E-2</c:v>
+                  <c:v>4.7564000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.118521</c:v>
+                  <c:v>6.5287999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3591E-2</c:v>
+                  <c:v>5.4037000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.208097</c:v>
+                  <c:v>0.18503700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77478499999999995</c:v>
+                  <c:v>0.70877900000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8537840000000001</c:v>
+                  <c:v>3.1181920000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.196705999999999</c:v>
+                  <c:v>14.320399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.823642999999997</c:v>
+                  <c:v>38.168233999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.865997</c:v>
+                  <c:v>81.207140999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.886585</c:v>
+                  <c:v>55.677205999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>86.595815000000002</c:v>
+                  <c:v>110.70790700000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>325.89356700000002</c:v>
+                  <c:v>336.941979</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1315.0122530000001</c:v>
+                  <c:v>1254.2710689999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5840.577029</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25220.320475</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>113910.062242</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>496256.82488199999</c:v>
+                  <c:v>6064.0449719999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1887,15 +1735,6 @@
                 <c:pt idx="13">
                   <c:v>8192</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65536</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1906,55 +1745,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1.5301340000000001</c:v>
+                  <c:v>1.436591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3358999999999998E-2</c:v>
+                  <c:v>5.2338999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2826000000000007E-2</c:v>
+                  <c:v>5.6154000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16738700000000001</c:v>
+                  <c:v>0.13947200000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35099999999999998</c:v>
+                  <c:v>0.30831700000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83777500000000005</c:v>
+                  <c:v>1.0652280000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5567570000000002</c:v>
+                  <c:v>3.2734230000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.5804449999999992</c:v>
+                  <c:v>6.6398919999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.876308999999999</c:v>
+                  <c:v>15.760463</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.428423</c:v>
+                  <c:v>21.503388000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.729158000000002</c:v>
+                  <c:v>20.772409</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53.802503000000002</c:v>
+                  <c:v>46.178958000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>212.542969</c:v>
+                  <c:v>169.727439</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1141.7364829999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4654.6989160000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>24848.295257999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>128314.746982</c:v>
+                  <c:v>1071.7274709999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2047,15 +1877,6 @@
                 <c:pt idx="13">
                   <c:v>8192</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65536</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2066,55 +1887,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2.6073309999999998</c:v>
+                  <c:v>2.3930609999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35000199999999998</c:v>
+                  <c:v>4.4789000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17385100000000001</c:v>
+                  <c:v>8.7446999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43915399999999999</c:v>
+                  <c:v>0.534632</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97164399999999995</c:v>
+                  <c:v>0.76494600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7313719999999999</c:v>
+                  <c:v>3.8711630000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2828990000000005</c:v>
+                  <c:v>9.8993739999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.152196000000004</c:v>
+                  <c:v>29.572732999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77.502510999999998</c:v>
+                  <c:v>92.853537000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64.123844000000005</c:v>
+                  <c:v>110.68758800000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.983138999999994</c:v>
+                  <c:v>57.761842999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>113.014413</c:v>
+                  <c:v>122.928505</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>433.94831299999998</c:v>
+                  <c:v>488.96915999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1640.230577</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7914.8529200000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32709.517352999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>209148.91262700001</c:v>
+                  <c:v>1714.084752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2129,11 +1941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="362570232"/>
-        <c:axId val="362573368"/>
+        <c:axId val="381394736"/>
+        <c:axId val="381397480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="362570232"/>
+        <c:axId val="381394736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2153,6 +1965,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Aantal rechthoeken</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2190,14 +2058,15 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362573368"/>
+        <c:crossAx val="381397480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="362573368"/>
+        <c:axId val="381397480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2215,6 +2084,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Aantal</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" baseline="0"/>
+                  <a:t> miliseconden</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2252,7 +2182,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362570232"/>
+        <c:crossAx val="381394736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2348,6 +2278,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Doubeling experiment (max. lengte zijde = 0.5) </a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2389,7 +2349,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'s &lt;= 0,1'!$G$1</c:f>
+              <c:f>'s &lt;= 0,5'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2424,7 +2384,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,1'!$F$2:$F$18</c:f>
+              <c:f>'s &lt;= 0,5'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2470,74 +2430,56 @@
                 <c:pt idx="13">
                   <c:v>8192</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65536</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,1'!$G$2:$G$18</c:f>
+              <c:f>'s &lt;= 0,5'!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>4.1986000000000002E-2</c:v>
+                  <c:v>4.8724999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0240000000000006E-2</c:v>
+                  <c:v>7.1363999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2451999999999997E-2</c:v>
+                  <c:v>0.168628</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16794300000000001</c:v>
+                  <c:v>0.26247799999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55841300000000005</c:v>
+                  <c:v>0.99839199999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8539129999999999</c:v>
+                  <c:v>5.2498670000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6775009999999999</c:v>
+                  <c:v>13.197941999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8093839999999997</c:v>
+                  <c:v>39.287708000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.343992999999999</c:v>
+                  <c:v>16.915521999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.380405000000003</c:v>
+                  <c:v>44.288040000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56.306870000000004</c:v>
+                  <c:v>232.675746</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>200.04898399999999</c:v>
+                  <c:v>719.36715600000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>885.34714199999996</c:v>
+                  <c:v>3616.9899890000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3695.6766149999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16585.345043000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>78726.221382000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>479312.58388499997</c:v>
+                  <c:v>25021.587320999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2549,7 +2491,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'s &lt;= 0,1'!$H$1</c:f>
+              <c:f>'s &lt;= 0,5'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2584,7 +2526,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,1'!$F$2:$F$18</c:f>
+              <c:f>'s &lt;= 0,5'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2630,74 +2572,56 @@
                 <c:pt idx="13">
                   <c:v>8192</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65536</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,1'!$H$2:$H$18</c:f>
+              <c:f>'s &lt;= 0,5'!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1.056646</c:v>
+                  <c:v>1.455031</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0647E-2</c:v>
+                  <c:v>5.3491999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5718000000000002E-2</c:v>
+                  <c:v>0.163637</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.132489</c:v>
+                  <c:v>0.239428</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30229899999999998</c:v>
+                  <c:v>0.75213399999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70116500000000004</c:v>
+                  <c:v>4.1842050000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3510139999999999</c:v>
+                  <c:v>7.3604909999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3437480000000002</c:v>
+                  <c:v>22.270868</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2093929999999999</c:v>
+                  <c:v>22.238222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.995393</c:v>
+                  <c:v>24.209389000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.5250109999999992</c:v>
+                  <c:v>130.66936999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.976896</c:v>
+                  <c:v>889.46861200000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>123.677035</c:v>
+                  <c:v>2740.3895769999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>577.034627</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2363.9056249999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15036.873914</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>119613.37018699999</c:v>
+                  <c:v>14273.761823999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2709,7 +2633,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'s &lt;= 0,1'!$I$1</c:f>
+              <c:f>'s &lt;= 0,5'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2744,7 +2668,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,1'!$F$2:$F$18</c:f>
+              <c:f>'s &lt;= 0,5'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2790,74 +2714,56 @@
                 <c:pt idx="13">
                   <c:v>8192</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65536</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,1'!$I$2:$I$18</c:f>
+              <c:f>'s &lt;= 0,5'!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1.8473809999999999</c:v>
+                  <c:v>2.3989180000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8982999999999999E-2</c:v>
+                  <c:v>4.6182000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3039000000000002E-2</c:v>
+                  <c:v>0.94386199999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.420792</c:v>
+                  <c:v>1.04775</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3323529999999999</c:v>
+                  <c:v>3.7222439999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0834350000000001</c:v>
+                  <c:v>20.027664000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0203160000000002</c:v>
+                  <c:v>34.721263999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3344059999999995</c:v>
+                  <c:v>90.492977999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6581639999999993</c:v>
+                  <c:v>165.07508000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.052949000000002</c:v>
+                  <c:v>100.277074</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.851603000000001</c:v>
+                  <c:v>375.95076599999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83.451244000000003</c:v>
+                  <c:v>1473.214066</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>307.63001000000003</c:v>
+                  <c:v>6566.0274239999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1143.730916</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4923.8883640000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>34791.604678999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>193968.09442099999</c:v>
+                  <c:v>38077.786604000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2872,11 +2778,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="409059904"/>
-        <c:axId val="409059120"/>
+        <c:axId val="381399048"/>
+        <c:axId val="381397872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="409059904"/>
+        <c:axId val="381399048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2933,14 +2839,15 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409059120"/>
+        <c:crossAx val="381397872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="409059120"/>
+        <c:axId val="381397872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2995,7 +2902,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409059904"/>
+        <c:crossAx val="381399048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3091,6 +2998,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Doubeling experiment (max. lengte zijde = 0.01) </a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3132,7 +3069,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'s &lt;= 0,05'!$B$1</c:f>
+              <c:f>'s &lt;= 0,01'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3167,10 +3104,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,05'!$A$2:$A$18</c:f>
+              <c:f>'s &lt;= 0,01'!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3218,69 +3155,63 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,05'!$B$2:$B$18</c:f>
+              <c:f>'s &lt;= 0,01'!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.827E-2</c:v>
+                  <c:v>5.645E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1351999999999997E-2</c:v>
+                  <c:v>6.2980999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3213000000000003E-2</c:v>
+                  <c:v>7.8377000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29483399999999998</c:v>
+                  <c:v>0.104503</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74216199999999999</c:v>
+                  <c:v>0.41241499999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8262830000000001</c:v>
+                  <c:v>1.9496370000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.911214999999999</c:v>
+                  <c:v>2.9433500000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.814880000000002</c:v>
+                  <c:v>6.8813459999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.167935</c:v>
+                  <c:v>16.648192000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.910733</c:v>
+                  <c:v>35.614581000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71.457324999999997</c:v>
+                  <c:v>83.452298999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>306.443713</c:v>
+                  <c:v>218.84779700000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1262.5204000000001</c:v>
+                  <c:v>838.66672600000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5561.7407620000004</c:v>
+                  <c:v>3327.7246869999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23337.365071</c:v>
+                  <c:v>14364.173427</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>102533.17954500001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>399678.28333200002</c:v>
+                  <c:v>65375.500355999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3292,7 +3223,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'s &lt;= 0,05'!$C$1</c:f>
+              <c:f>'s &lt;= 0,01'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3327,10 +3258,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,05'!$A$2:$A$18</c:f>
+              <c:f>'s &lt;= 0,01'!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3378,69 +3309,63 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,05'!$C$2:$C$18</c:f>
+              <c:f>'s &lt;= 0,01'!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1.402379</c:v>
+                  <c:v>2.369049</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3004000000000003E-2</c:v>
+                  <c:v>4.8051999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4343000000000002E-2</c:v>
+                  <c:v>5.2718000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19470599999999999</c:v>
+                  <c:v>7.0913000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30050300000000002</c:v>
+                  <c:v>0.14788999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69754700000000003</c:v>
+                  <c:v>0.26359100000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6837249999999999</c:v>
+                  <c:v>0.59809400000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6982330000000001</c:v>
+                  <c:v>2.2220909999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.849119</c:v>
+                  <c:v>1.1430039999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.070788</c:v>
+                  <c:v>1.5008330000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.081652999999999</c:v>
+                  <c:v>4.3000249999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.690255000000001</c:v>
+                  <c:v>6.9905140000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74.507769999999994</c:v>
+                  <c:v>10.001512</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>256.19227799999999</c:v>
+                  <c:v>29.220761</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1150.2912200000001</c:v>
+                  <c:v>96.793245999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6047.9291149999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>33905.648400999999</c:v>
+                  <c:v>407.60148500000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3452,7 +3377,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'s &lt;= 0,05'!$D$1</c:f>
+              <c:f>'s &lt;= 0,01'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3487,10 +3412,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,05'!$A$2:$A$18</c:f>
+              <c:f>'s &lt;= 0,01'!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3538,69 +3463,63 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,05'!$D$2:$D$18</c:f>
+              <c:f>'s &lt;= 0,01'!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2.5489830000000002</c:v>
+                  <c:v>2.431098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8881000000000001E-2</c:v>
+                  <c:v>2.9391E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0379000000000001E-2</c:v>
+                  <c:v>8.4908999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64754400000000001</c:v>
+                  <c:v>0.117566</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72908499999999998</c:v>
+                  <c:v>0.47026499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.909762</c:v>
+                  <c:v>0.62888500000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8308359999999997</c:v>
+                  <c:v>2.185702</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.433488000000001</c:v>
+                  <c:v>5.6930889999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.363814999999999</c:v>
+                  <c:v>12.311778</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57.029266999999997</c:v>
+                  <c:v>18.609491999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.109684999999999</c:v>
+                  <c:v>30.624555000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57.897345999999999</c:v>
+                  <c:v>39.927202000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>114.363812</c:v>
+                  <c:v>57.771582000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>449.21737999999999</c:v>
+                  <c:v>49.237313999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2153.689746</c:v>
+                  <c:v>163.55769799999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7986.3196770000004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>39671.552448000002</c:v>
+                  <c:v>525.21791700000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3615,11 +3534,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="409062648"/>
-        <c:axId val="409066960"/>
+        <c:axId val="433381208"/>
+        <c:axId val="433383952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="409062648"/>
+        <c:axId val="433381208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3676,14 +3595,15 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409066960"/>
+        <c:crossAx val="433383952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="409066960"/>
+        <c:axId val="433383952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3738,7 +3658,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409062648"/>
+        <c:crossAx val="433381208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3834,6 +3754,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Doubeling experiment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> (max. lengte zijde = 1) </a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3875,7 +3825,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'s &lt;= 0,01'!$B$1</c:f>
+              <c:f>'s &lt;= 1'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3910,10 +3860,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,01'!$A$2:$A$18</c:f>
+              <c:f>'s &lt;= 1'!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3955,75 +3905,57 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,01'!$B$2:$B$18</c:f>
+              <c:f>'s &lt;= 1'!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.8682999999999997E-2</c:v>
+                  <c:v>4.7219999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7720000000000002E-2</c:v>
+                  <c:v>6.7608000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4110999999999999E-2</c:v>
+                  <c:v>5.3696000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26990599999999998</c:v>
+                  <c:v>0.35636499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71288499999999999</c:v>
+                  <c:v>1.5262720000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8364050000000001</c:v>
+                  <c:v>6.6619070000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.581353</c:v>
+                  <c:v>23.938618000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.028768999999997</c:v>
+                  <c:v>17.243922000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.090992999999997</c:v>
+                  <c:v>21.229586000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.020084000000001</c:v>
+                  <c:v>83.093427000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77.135257999999993</c:v>
+                  <c:v>297.59792399999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>301.78080499999999</c:v>
+                  <c:v>1465.1331339999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1210.980397</c:v>
+                  <c:v>7261.0126780000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4693.4935349999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21626.335812000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>99777.367140000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>467428.64517999999</c:v>
+                  <c:v>37798.723587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4035,7 +3967,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'s &lt;= 0,01'!$C$1</c:f>
+              <c:f>'s &lt;= 1'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4070,10 +4002,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,01'!$A$2:$A$18</c:f>
+              <c:f>'s &lt;= 1'!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4115,75 +4047,57 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,01'!$C$2:$C$18</c:f>
+              <c:f>'s &lt;= 1'!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.4109750000000001</c:v>
+                  <c:v>1.577931</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6552999999999999E-2</c:v>
+                  <c:v>5.3656000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6696999999999997E-2</c:v>
+                  <c:v>7.4798000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.162078</c:v>
+                  <c:v>0.35963000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30099500000000001</c:v>
+                  <c:v>1.5868249999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66696599999999995</c:v>
+                  <c:v>5.8992839999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.325904</c:v>
+                  <c:v>11.979438</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.97289</c:v>
+                  <c:v>7.6299739999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.2250259999999997</c:v>
+                  <c:v>26.588889999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5321210000000001</c:v>
+                  <c:v>95.080100999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.8146819999999995</c:v>
+                  <c:v>218.35639499999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.893321</c:v>
+                  <c:v>1253.880412</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.530649</c:v>
+                  <c:v>6202.6679770000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42.334212000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>158.793631</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>641.46601899999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2795.2289209999999</c:v>
+                  <c:v>39049.431132999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4195,7 +4109,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'s &lt;= 0,01'!$D$1</c:f>
+              <c:f>'s &lt;= 1'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4230,10 +4144,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,01'!$A$2:$A$18</c:f>
+              <c:f>'s &lt;= 1'!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4275,75 +4189,57 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,01'!$D$2:$D$18</c:f>
+              <c:f>'s &lt;= 1'!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.547282</c:v>
+                  <c:v>3.0676009999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1573000000000001E-2</c:v>
+                  <c:v>4.6050000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8225999999999999E-2</c:v>
+                  <c:v>0.36694199999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32250699999999999</c:v>
+                  <c:v>1.7168490000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76685000000000003</c:v>
+                  <c:v>6.9535099999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1050869999999999</c:v>
+                  <c:v>29.664919000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7680030000000002</c:v>
+                  <c:v>54.168595000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8530990000000003</c:v>
+                  <c:v>109.751535</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.062505999999999</c:v>
+                  <c:v>122.167559</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.448158999999997</c:v>
+                  <c:v>207.403435</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53.355504000000003</c:v>
+                  <c:v>674.55776900000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.004382</c:v>
+                  <c:v>3156.0424349999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41.392315000000004</c:v>
+                  <c:v>13814.926885999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51.575001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>143.722005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>554.38410099999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1846.660789</c:v>
+                  <c:v>74498.329536000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4358,11 +4254,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="358174392"/>
-        <c:axId val="358173216"/>
+        <c:axId val="429297352"/>
+        <c:axId val="429295784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="358174392"/>
+        <c:axId val="429297352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4382,6 +4278,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Aantal rechthoeken</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4419,14 +4371,15 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358173216"/>
+        <c:crossAx val="429295784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="358173216"/>
+        <c:axId val="429295784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4444,6 +4397,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Tijd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" baseline="0"/>
+                  <a:t> in miliseconden</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4481,7 +4495,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358174392"/>
+        <c:crossAx val="429297352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7902,16 +7916,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7973,15 +7987,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8000,36 +8014,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafiek 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8037,16 +8021,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8072,20 +8056,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>300193</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>264574</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvPr id="4" name="Grafiek 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8369,7 +8388,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8397,13 +8416,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>5.2249999999999998E-2</v>
+        <v>4.7223000000000001E-2</v>
       </c>
       <c r="C2" s="2">
-        <v>1.3043629999999999</v>
+        <v>1.427926</v>
       </c>
       <c r="D2" s="2">
-        <v>2.336284</v>
+        <v>2.3958879999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -8411,13 +8430,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>7.2308999999999998E-2</v>
+        <v>6.9347000000000006E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>6.4845E-2</v>
+        <v>5.5888E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>0.22065899999999999</v>
+        <v>4.6593000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -8425,13 +8444,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>5.9247000000000001E-2</v>
+        <v>5.9225E-2</v>
       </c>
       <c r="C4" s="2">
-        <v>7.1375999999999995E-2</v>
+        <v>6.8627999999999995E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>0.383938</v>
+        <v>0.30030099999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -8439,13 +8458,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>0.229523</v>
+        <v>0.35874600000000001</v>
       </c>
       <c r="C5" s="2">
-        <v>0.18660399999999999</v>
+        <v>0.25318400000000002</v>
       </c>
       <c r="D5" s="2">
-        <v>0.78980300000000003</v>
+        <v>0.67792300000000005</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8453,13 +8472,13 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>0.78746899999999997</v>
+        <v>0.77075300000000002</v>
       </c>
       <c r="C6" s="2">
-        <v>0.67130800000000002</v>
+        <v>0.46081499999999997</v>
       </c>
       <c r="D6" s="2">
-        <v>2.3866670000000001</v>
+        <v>1.8269759999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -8467,13 +8486,13 @@
         <v>32</v>
       </c>
       <c r="B7" s="2">
-        <v>1.999463</v>
+        <v>3.4476689999999999</v>
       </c>
       <c r="C7" s="2">
-        <v>0.95681300000000002</v>
+        <v>1.766035</v>
       </c>
       <c r="D7" s="2">
-        <v>3.9130889999999998</v>
+        <v>8.3838950000000008</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8481,13 +8500,13 @@
         <v>64</v>
       </c>
       <c r="B8" s="2">
-        <v>2.707627</v>
+        <v>16.724685999999998</v>
       </c>
       <c r="C8" s="2">
-        <v>1.7564120000000001</v>
+        <v>3.5092669999999999</v>
       </c>
       <c r="D8" s="2">
-        <v>7.504753</v>
+        <v>16.409811999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8495,13 +8514,13 @@
         <v>128</v>
       </c>
       <c r="B9" s="2">
-        <v>7.5691309999999996</v>
+        <v>64.328180000000003</v>
       </c>
       <c r="C9" s="2">
-        <v>2.5102929999999999</v>
+        <v>17.058319000000001</v>
       </c>
       <c r="D9" s="2">
-        <v>14.314871</v>
+        <v>113.157793</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -8509,13 +8528,13 @@
         <v>256</v>
       </c>
       <c r="B10" s="2">
-        <v>24.638746000000001</v>
+        <v>45.292262000000001</v>
       </c>
       <c r="C10" s="2">
-        <v>6.2703660000000001</v>
+        <v>16.253195000000002</v>
       </c>
       <c r="D10" s="2">
-        <v>24.028084</v>
+        <v>82.311852999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -8523,13 +8542,13 @@
         <v>512</v>
       </c>
       <c r="B11" s="2">
-        <v>63.003160999999999</v>
+        <v>28.154897999999999</v>
       </c>
       <c r="C11" s="2">
-        <v>19.569177</v>
+        <v>14.791833</v>
       </c>
       <c r="D11" s="2">
-        <v>37.874578</v>
+        <v>65.254551000000006</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -8537,13 +8556,13 @@
         <v>1024</v>
       </c>
       <c r="B12" s="2">
-        <v>91.684218999999999</v>
+        <v>89.458753999999999</v>
       </c>
       <c r="C12" s="2">
-        <v>31.447932000000002</v>
+        <v>35.258977999999999</v>
       </c>
       <c r="D12" s="2">
-        <v>90.619641999999999</v>
+        <v>109.60528600000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -8551,13 +8570,13 @@
         <v>2048</v>
       </c>
       <c r="B13" s="2">
-        <v>343.37123700000001</v>
+        <v>409.24207899999999</v>
       </c>
       <c r="C13" s="2">
-        <v>117.457052</v>
+        <v>158.16474700000001</v>
       </c>
       <c r="D13" s="2">
-        <v>351.91957300000001</v>
+        <v>342.60131000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8565,13 +8584,13 @@
         <v>4096</v>
       </c>
       <c r="B14" s="2">
-        <v>1505.314253</v>
+        <v>1698.683477</v>
       </c>
       <c r="C14" s="2">
-        <v>489.095553</v>
+        <v>845.33772199999999</v>
       </c>
       <c r="D14" s="2">
-        <v>1339.7156620000001</v>
+        <v>1600.68336</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -8579,13 +8598,13 @@
         <v>8192</v>
       </c>
       <c r="B15" s="2">
-        <v>6761.7186240000001</v>
+        <v>8778.2531400000007</v>
       </c>
       <c r="C15" s="2">
-        <v>3015.1970430000001</v>
+        <v>2508.9897179999998</v>
       </c>
       <c r="D15" s="2">
-        <v>6260.5180600000003</v>
+        <v>6551.8527519999998</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -8593,27 +8612,27 @@
         <v>16384</v>
       </c>
       <c r="B16" s="2">
-        <v>26432.905309999998</v>
+        <v>36192.314450999998</v>
       </c>
       <c r="C16" s="2">
-        <v>9388.0965209999995</v>
+        <v>20610.072639000002</v>
       </c>
       <c r="D16" s="2">
-        <v>28734.760856000001</v>
+        <v>32770.112476000002</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>32768</v>
       </c>
-      <c r="B17" s="2">
-        <v>164165.51182000001</v>
-      </c>
-      <c r="C17" s="2">
-        <v>80887.940938999993</v>
-      </c>
-      <c r="D17" s="2">
-        <v>141693.69534599999</v>
+      <c r="B17">
+        <v>231158.01998899999</v>
+      </c>
+      <c r="C17">
+        <v>94613.954494000005</v>
+      </c>
+      <c r="D17">
+        <v>160632.83349300001</v>
       </c>
     </row>
   </sheetData>
@@ -8625,10 +8644,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A2" sqref="A2:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8645,230 +8664,6 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>4.7378999999999998E-2</v>
-      </c>
-      <c r="C2">
-        <v>1.4310290000000001</v>
-      </c>
-      <c r="D2">
-        <v>2.5580020000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.106058</v>
-      </c>
-      <c r="C3">
-        <v>5.5347E-2</v>
-      </c>
-      <c r="D3">
-        <v>4.8042000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>5.3558000000000001E-2</v>
-      </c>
-      <c r="C4">
-        <v>5.4370000000000002E-2</v>
-      </c>
-      <c r="D4">
-        <v>9.0087E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.26643299999999998</v>
-      </c>
-      <c r="C5">
-        <v>0.20044000000000001</v>
-      </c>
-      <c r="D5">
-        <v>0.61219800000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>0.79963600000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.41137000000000001</v>
-      </c>
-      <c r="D6">
-        <v>1.5650280000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>2.9856090000000002</v>
-      </c>
-      <c r="C7">
-        <v>1.200229</v>
-      </c>
-      <c r="D7">
-        <v>4.407826</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>64</v>
-      </c>
-      <c r="B8">
-        <v>16.933807000000002</v>
-      </c>
-      <c r="C8">
-        <v>3.482952</v>
-      </c>
-      <c r="D8">
-        <v>15.201532</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>128</v>
-      </c>
-      <c r="B9">
-        <v>59.726059999999997</v>
-      </c>
-      <c r="C9">
-        <v>16.886756999999999</v>
-      </c>
-      <c r="D9">
-        <v>64.212903999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>256</v>
-      </c>
-      <c r="B10">
-        <v>113.781239</v>
-      </c>
-      <c r="C10">
-        <v>12.329739999999999</v>
-      </c>
-      <c r="D10">
-        <v>87.692751999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>512</v>
-      </c>
-      <c r="B11">
-        <v>31.582574999999999</v>
-      </c>
-      <c r="C11">
-        <v>16.361609999999999</v>
-      </c>
-      <c r="D11">
-        <v>48.801291999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1024</v>
-      </c>
-      <c r="B12">
-        <v>87.906364999999994</v>
-      </c>
-      <c r="C12">
-        <v>24.103532000000001</v>
-      </c>
-      <c r="D12">
-        <v>67.437021000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2048</v>
-      </c>
-      <c r="B13">
-        <v>408.01519200000001</v>
-      </c>
-      <c r="C13">
-        <v>86.558007000000003</v>
-      </c>
-      <c r="D13">
-        <v>211.47917699999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>4096</v>
-      </c>
-      <c r="B14">
-        <v>1454.1016790000001</v>
-      </c>
-      <c r="C14">
-        <v>429.14488799999998</v>
-      </c>
-      <c r="D14">
-        <v>843.23012500000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>8192</v>
-      </c>
-      <c r="B15">
-        <v>7667.1212089999999</v>
-      </c>
-      <c r="C15">
-        <v>1494.606849</v>
-      </c>
-      <c r="D15">
-        <v>3344.624632</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>16384</v>
-      </c>
-      <c r="B16">
-        <v>28622.818766</v>
-      </c>
-      <c r="C16">
-        <v>8161.4830760000004</v>
-      </c>
-      <c r="D16">
-        <v>17216.412950000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>32768</v>
-      </c>
-      <c r="B17">
-        <v>156327.78784500001</v>
-      </c>
-      <c r="C17">
-        <v>51911.735822000002</v>
-      </c>
-      <c r="D17">
-        <v>82534.662872999994</v>
       </c>
     </row>
   </sheetData>
@@ -8879,15 +8674,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8900,459 +8695,267 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.1742000000000003E-2</v>
+        <v>4.7564000000000002E-2</v>
       </c>
       <c r="C2">
-        <v>1.5301340000000001</v>
+        <v>1.436591</v>
       </c>
       <c r="D2">
-        <v>2.6073309999999998</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>4.1986000000000002E-2</v>
-      </c>
-      <c r="H2">
-        <v>1.056646</v>
-      </c>
-      <c r="I2">
-        <v>1.8473809999999999</v>
-      </c>
+        <v>2.3930609999999999</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.118521</v>
+        <v>6.5287999999999999E-2</v>
       </c>
       <c r="C3">
-        <v>9.3358999999999998E-2</v>
+        <v>5.2338999999999997E-2</v>
       </c>
       <c r="D3">
-        <v>0.35000199999999998</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>8.0240000000000006E-2</v>
-      </c>
-      <c r="H3">
-        <v>6.0647E-2</v>
-      </c>
-      <c r="I3">
-        <v>4.8982999999999999E-2</v>
-      </c>
+        <v>4.4789000000000002E-2</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5.3591E-2</v>
+        <v>5.4037000000000002E-2</v>
       </c>
       <c r="C4">
-        <v>6.2826000000000007E-2</v>
+        <v>5.6154000000000003E-2</v>
       </c>
       <c r="D4">
-        <v>0.17385100000000001</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>4.2451999999999997E-2</v>
-      </c>
-      <c r="H4">
-        <v>4.5718000000000002E-2</v>
-      </c>
-      <c r="I4">
-        <v>8.3039000000000002E-2</v>
-      </c>
+        <v>8.7446999999999997E-2</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.208097</v>
+        <v>0.18503700000000001</v>
       </c>
       <c r="C5">
-        <v>0.16738700000000001</v>
+        <v>0.13947200000000001</v>
       </c>
       <c r="D5">
-        <v>0.43915399999999999</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>0.16794300000000001</v>
-      </c>
-      <c r="H5">
-        <v>0.132489</v>
-      </c>
-      <c r="I5">
-        <v>0.420792</v>
-      </c>
+        <v>0.534632</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>0.77478499999999995</v>
+        <v>0.70877900000000005</v>
       </c>
       <c r="C6">
-        <v>0.35099999999999998</v>
+        <v>0.30831700000000001</v>
       </c>
       <c r="D6">
-        <v>0.97164399999999995</v>
-      </c>
-      <c r="F6">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>0.55841300000000005</v>
-      </c>
-      <c r="H6">
-        <v>0.30229899999999998</v>
-      </c>
-      <c r="I6">
-        <v>1.3323529999999999</v>
-      </c>
+        <v>0.76494600000000001</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>32</v>
       </c>
       <c r="B7">
-        <v>2.8537840000000001</v>
+        <v>3.1181920000000001</v>
       </c>
       <c r="C7">
-        <v>0.83777500000000005</v>
+        <v>1.0652280000000001</v>
       </c>
       <c r="D7">
-        <v>2.7313719999999999</v>
-      </c>
-      <c r="F7">
-        <v>32</v>
-      </c>
-      <c r="G7">
-        <v>1.8539129999999999</v>
-      </c>
-      <c r="H7">
-        <v>0.70116500000000004</v>
-      </c>
-      <c r="I7">
-        <v>2.0834350000000001</v>
-      </c>
+        <v>3.8711630000000001</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>64</v>
       </c>
       <c r="B8">
-        <v>17.196705999999999</v>
+        <v>14.320399</v>
       </c>
       <c r="C8">
-        <v>2.5567570000000002</v>
+        <v>3.2734230000000002</v>
       </c>
       <c r="D8">
-        <v>9.2828990000000005</v>
-      </c>
-      <c r="F8">
-        <v>64</v>
-      </c>
-      <c r="G8">
-        <v>3.6775009999999999</v>
-      </c>
-      <c r="H8">
-        <v>1.3510139999999999</v>
-      </c>
-      <c r="I8">
-        <v>6.0203160000000002</v>
-      </c>
+        <v>9.8993739999999999</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>128</v>
       </c>
       <c r="B9">
-        <v>52.823642999999997</v>
+        <v>38.168233999999998</v>
       </c>
       <c r="C9">
-        <v>8.5804449999999992</v>
+        <v>6.6398919999999997</v>
       </c>
       <c r="D9">
-        <v>38.152196000000004</v>
-      </c>
-      <c r="F9">
-        <v>128</v>
-      </c>
-      <c r="G9">
-        <v>7.8093839999999997</v>
-      </c>
-      <c r="H9">
-        <v>2.3437480000000002</v>
-      </c>
-      <c r="I9">
-        <v>9.3344059999999995</v>
-      </c>
+        <v>29.572732999999999</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>256</v>
       </c>
       <c r="B10">
-        <v>38.865997</v>
+        <v>81.207140999999993</v>
       </c>
       <c r="C10">
-        <v>14.876308999999999</v>
+        <v>15.760463</v>
       </c>
       <c r="D10">
-        <v>77.502510999999998</v>
-      </c>
-      <c r="F10">
-        <v>256</v>
-      </c>
-      <c r="G10">
-        <v>15.343992999999999</v>
-      </c>
-      <c r="H10">
-        <v>2.2093929999999999</v>
-      </c>
-      <c r="I10">
-        <v>9.6581639999999993</v>
-      </c>
+        <v>92.853537000000003</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>512</v>
       </c>
       <c r="B11">
-        <v>22.886585</v>
+        <v>55.677205999999998</v>
       </c>
       <c r="C11">
-        <v>10.428423</v>
+        <v>21.503388000000001</v>
       </c>
       <c r="D11">
-        <v>64.123844000000005</v>
-      </c>
-      <c r="F11">
-        <v>512</v>
-      </c>
-      <c r="G11">
-        <v>41.380405000000003</v>
-      </c>
-      <c r="H11">
-        <v>4.995393</v>
-      </c>
-      <c r="I11">
-        <v>20.052949000000002</v>
-      </c>
+        <v>110.68758800000001</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1024</v>
       </c>
       <c r="B12">
-        <v>86.595815000000002</v>
+        <v>110.70790700000001</v>
       </c>
       <c r="C12">
-        <v>18.729158000000002</v>
+        <v>20.772409</v>
       </c>
       <c r="D12">
-        <v>87.983138999999994</v>
-      </c>
-      <c r="F12">
-        <v>1024</v>
-      </c>
-      <c r="G12">
-        <v>56.306870000000004</v>
-      </c>
-      <c r="H12">
-        <v>8.5250109999999992</v>
-      </c>
-      <c r="I12">
-        <v>27.851603000000001</v>
+        <v>57.761842999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2048</v>
       </c>
       <c r="B13">
-        <v>325.89356700000002</v>
+        <v>336.941979</v>
       </c>
       <c r="C13">
-        <v>53.802503000000002</v>
+        <v>46.178958000000002</v>
       </c>
       <c r="D13">
-        <v>113.014413</v>
-      </c>
-      <c r="F13">
-        <v>2048</v>
-      </c>
-      <c r="G13">
-        <v>200.04898399999999</v>
-      </c>
-      <c r="H13">
-        <v>26.976896</v>
-      </c>
-      <c r="I13">
-        <v>83.451244000000003</v>
+        <v>122.928505</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4096</v>
       </c>
       <c r="B14">
-        <v>1315.0122530000001</v>
+        <v>1254.2710689999999</v>
       </c>
       <c r="C14">
-        <v>212.542969</v>
+        <v>169.727439</v>
       </c>
       <c r="D14">
-        <v>433.94831299999998</v>
-      </c>
-      <c r="F14">
-        <v>4096</v>
-      </c>
-      <c r="G14">
-        <v>885.34714199999996</v>
-      </c>
-      <c r="H14">
-        <v>123.677035</v>
-      </c>
-      <c r="I14">
-        <v>307.63001000000003</v>
+        <v>488.96915999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8192</v>
       </c>
       <c r="B15">
-        <v>5840.577029</v>
+        <v>6064.0449719999997</v>
       </c>
       <c r="C15">
-        <v>1141.7364829999999</v>
+        <v>1071.7274709999999</v>
       </c>
       <c r="D15">
-        <v>1640.230577</v>
-      </c>
-      <c r="F15">
-        <v>8192</v>
-      </c>
-      <c r="G15">
-        <v>3695.6766149999999</v>
-      </c>
-      <c r="H15">
-        <v>577.034627</v>
-      </c>
-      <c r="I15">
-        <v>1143.730916</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>16384</v>
-      </c>
-      <c r="B16">
-        <v>25220.320475</v>
-      </c>
-      <c r="C16">
-        <v>4654.6989160000003</v>
-      </c>
-      <c r="D16">
-        <v>7914.8529200000003</v>
-      </c>
-      <c r="F16">
-        <v>16384</v>
-      </c>
-      <c r="G16">
-        <v>16585.345043000001</v>
-      </c>
-      <c r="H16">
-        <v>2363.9056249999999</v>
-      </c>
-      <c r="I16">
-        <v>4923.8883640000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>32768</v>
-      </c>
-      <c r="B17">
-        <v>113910.062242</v>
-      </c>
-      <c r="C17">
-        <v>24848.295257999998</v>
-      </c>
-      <c r="D17">
-        <v>32709.517352999999</v>
-      </c>
-      <c r="F17">
-        <v>32768</v>
-      </c>
-      <c r="G17">
-        <v>78726.221382000003</v>
-      </c>
-      <c r="H17">
-        <v>15036.873914</v>
-      </c>
-      <c r="I17">
-        <v>34791.604678999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>65536</v>
-      </c>
-      <c r="B18">
-        <v>496256.82488199999</v>
-      </c>
-      <c r="C18">
-        <v>128314.746982</v>
-      </c>
-      <c r="D18">
-        <v>209148.91262700001</v>
-      </c>
-      <c r="F18">
-        <v>65536</v>
-      </c>
-      <c r="G18">
-        <v>479312.58388499997</v>
-      </c>
-      <c r="H18">
-        <v>119613.37018699999</v>
-      </c>
-      <c r="I18">
-        <v>193968.09442099999</v>
+        <v>1714.084752</v>
       </c>
     </row>
   </sheetData>
@@ -9363,10 +8966,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9390,13 +8993,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.827E-2</v>
+        <v>4.8724999999999997E-2</v>
       </c>
       <c r="C2">
-        <v>1.402379</v>
+        <v>1.455031</v>
       </c>
       <c r="D2">
-        <v>2.5489830000000002</v>
+        <v>2.3989180000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -9404,13 +9007,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.1351999999999997E-2</v>
+        <v>7.1363999999999997E-2</v>
       </c>
       <c r="C3">
-        <v>5.3004000000000003E-2</v>
+        <v>5.3491999999999998E-2</v>
       </c>
       <c r="D3">
-        <v>4.8881000000000001E-2</v>
+        <v>4.6182000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -9418,13 +9021,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5.3213000000000003E-2</v>
+        <v>0.168628</v>
       </c>
       <c r="C4">
-        <v>5.4343000000000002E-2</v>
+        <v>0.163637</v>
       </c>
       <c r="D4">
-        <v>9.0379000000000001E-2</v>
+        <v>0.94386199999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -9432,13 +9035,13 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.29483399999999998</v>
+        <v>0.26247799999999999</v>
       </c>
       <c r="C5">
-        <v>0.19470599999999999</v>
+        <v>0.239428</v>
       </c>
       <c r="D5">
-        <v>0.64754400000000001</v>
+        <v>1.04775</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -9446,13 +9049,13 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>0.74216199999999999</v>
+        <v>0.99839199999999995</v>
       </c>
       <c r="C6">
-        <v>0.30050300000000002</v>
+        <v>0.75213399999999997</v>
       </c>
       <c r="D6">
-        <v>0.72908499999999998</v>
+        <v>3.7222439999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -9460,13 +9063,13 @@
         <v>32</v>
       </c>
       <c r="B7">
-        <v>2.8262830000000001</v>
+        <v>5.2498670000000001</v>
       </c>
       <c r="C7">
-        <v>0.69754700000000003</v>
+        <v>4.1842050000000004</v>
       </c>
       <c r="D7">
-        <v>1.909762</v>
+        <v>20.027664000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -9474,13 +9077,13 @@
         <v>64</v>
       </c>
       <c r="B8">
-        <v>17.911214999999999</v>
+        <v>13.197941999999999</v>
       </c>
       <c r="C8">
-        <v>1.6837249999999999</v>
+        <v>7.3604909999999997</v>
       </c>
       <c r="D8">
-        <v>5.8308359999999997</v>
+        <v>34.721263999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -9488,13 +9091,13 @@
         <v>128</v>
       </c>
       <c r="B9">
-        <v>51.814880000000002</v>
+        <v>39.287708000000002</v>
       </c>
       <c r="C9">
-        <v>5.6982330000000001</v>
+        <v>22.270868</v>
       </c>
       <c r="D9">
-        <v>22.433488000000001</v>
+        <v>90.492977999999994</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -9502,13 +9105,13 @@
         <v>256</v>
       </c>
       <c r="B10">
-        <v>42.167935</v>
+        <v>16.915521999999999</v>
       </c>
       <c r="C10">
-        <v>9.849119</v>
+        <v>22.238222</v>
       </c>
       <c r="D10">
-        <v>29.363814999999999</v>
+        <v>165.07508000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -9516,13 +9119,13 @@
         <v>512</v>
       </c>
       <c r="B11">
-        <v>29.910733</v>
+        <v>44.288040000000002</v>
       </c>
       <c r="C11">
-        <v>12.070788</v>
+        <v>24.209389000000002</v>
       </c>
       <c r="D11">
-        <v>57.029266999999997</v>
+        <v>100.277074</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -9530,13 +9133,13 @@
         <v>1024</v>
       </c>
       <c r="B12">
-        <v>71.457324999999997</v>
+        <v>232.675746</v>
       </c>
       <c r="C12">
-        <v>19.081652999999999</v>
+        <v>130.66936999999999</v>
       </c>
       <c r="D12">
-        <v>41.109684999999999</v>
+        <v>375.95076599999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -9544,13 +9147,13 @@
         <v>2048</v>
       </c>
       <c r="B13">
-        <v>306.443713</v>
+        <v>719.36715600000002</v>
       </c>
       <c r="C13">
-        <v>21.690255000000001</v>
+        <v>889.46861200000001</v>
       </c>
       <c r="D13">
-        <v>57.897345999999999</v>
+        <v>1473.214066</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9558,13 +9161,13 @@
         <v>4096</v>
       </c>
       <c r="B14">
-        <v>1262.5204000000001</v>
+        <v>3616.9899890000002</v>
       </c>
       <c r="C14">
-        <v>74.507769999999994</v>
+        <v>2740.3895769999999</v>
       </c>
       <c r="D14">
-        <v>114.363812</v>
+        <v>6566.0274239999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -9572,55 +9175,13 @@
         <v>8192</v>
       </c>
       <c r="B15">
-        <v>5561.7407620000004</v>
+        <v>25021.587320999999</v>
       </c>
       <c r="C15">
-        <v>256.19227799999999</v>
+        <v>14273.761823999999</v>
       </c>
       <c r="D15">
-        <v>449.21737999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>16384</v>
-      </c>
-      <c r="B16">
-        <v>23337.365071</v>
-      </c>
-      <c r="C16">
-        <v>1150.2912200000001</v>
-      </c>
-      <c r="D16">
-        <v>2153.689746</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>32768</v>
-      </c>
-      <c r="B17">
-        <v>102533.17954500001</v>
-      </c>
-      <c r="C17">
-        <v>6047.9291149999999</v>
-      </c>
-      <c r="D17">
-        <v>7986.3196770000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>65536</v>
-      </c>
-      <c r="B18">
-        <v>399678.28333200002</v>
-      </c>
-      <c r="C18">
-        <v>33905.648400999999</v>
-      </c>
-      <c r="D18">
-        <v>39671.552448000002</v>
+        <v>38077.786604000001</v>
       </c>
     </row>
   </sheetData>
@@ -9631,13 +9192,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -9658,13 +9223,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.8682999999999997E-2</v>
+        <v>5.645E-2</v>
       </c>
       <c r="C2">
-        <v>1.4109750000000001</v>
+        <v>2.369049</v>
       </c>
       <c r="D2">
-        <v>2.547282</v>
+        <v>2.431098</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -9672,13 +9237,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.7720000000000002E-2</v>
+        <v>6.2980999999999995E-2</v>
       </c>
       <c r="C3">
-        <v>5.6552999999999999E-2</v>
+        <v>4.8051999999999997E-2</v>
       </c>
       <c r="D3">
-        <v>5.1573000000000001E-2</v>
+        <v>2.9391E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -9686,13 +9251,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5.4110999999999999E-2</v>
+        <v>7.8377000000000002E-2</v>
       </c>
       <c r="C4">
-        <v>5.6696999999999997E-2</v>
+        <v>5.2718000000000001E-2</v>
       </c>
       <c r="D4">
-        <v>8.8225999999999999E-2</v>
+        <v>8.4908999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -9700,13 +9265,13 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.26990599999999998</v>
+        <v>0.104503</v>
       </c>
       <c r="C5">
-        <v>0.162078</v>
+        <v>7.0913000000000004E-2</v>
       </c>
       <c r="D5">
-        <v>0.32250699999999999</v>
+        <v>0.117566</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -9714,13 +9279,13 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>0.71288499999999999</v>
+        <v>0.41241499999999998</v>
       </c>
       <c r="C6">
-        <v>0.30099500000000001</v>
+        <v>0.14788999999999999</v>
       </c>
       <c r="D6">
-        <v>0.76685000000000003</v>
+        <v>0.47026499999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -9728,13 +9293,13 @@
         <v>32</v>
       </c>
       <c r="B7">
-        <v>2.8364050000000001</v>
+        <v>1.9496370000000001</v>
       </c>
       <c r="C7">
-        <v>0.66696599999999995</v>
+        <v>0.26359100000000002</v>
       </c>
       <c r="D7">
-        <v>1.1050869999999999</v>
+        <v>0.62888500000000003</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -9742,13 +9307,13 @@
         <v>64</v>
       </c>
       <c r="B8">
-        <v>17.581353</v>
+        <v>2.9433500000000001</v>
       </c>
       <c r="C8">
-        <v>1.325904</v>
+        <v>0.59809400000000001</v>
       </c>
       <c r="D8">
-        <v>2.7680030000000002</v>
+        <v>2.185702</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -9756,13 +9321,13 @@
         <v>128</v>
       </c>
       <c r="B9">
-        <v>38.028768999999997</v>
+        <v>6.8813459999999997</v>
       </c>
       <c r="C9">
-        <v>2.97289</v>
+        <v>2.2220909999999998</v>
       </c>
       <c r="D9">
-        <v>7.8530990000000003</v>
+        <v>5.6930889999999996</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -9770,13 +9335,13 @@
         <v>256</v>
       </c>
       <c r="B10">
-        <v>85.090992999999997</v>
+        <v>16.648192000000002</v>
       </c>
       <c r="C10">
-        <v>6.2250259999999997</v>
+        <v>1.1430039999999999</v>
       </c>
       <c r="D10">
-        <v>20.062505999999999</v>
+        <v>12.311778</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -9784,13 +9349,13 @@
         <v>512</v>
       </c>
       <c r="B11">
-        <v>20.020084000000001</v>
+        <v>35.614581000000001</v>
       </c>
       <c r="C11">
-        <v>4.5321210000000001</v>
+        <v>1.5008330000000001</v>
       </c>
       <c r="D11">
-        <v>33.448158999999997</v>
+        <v>18.609491999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -9798,13 +9363,13 @@
         <v>1024</v>
       </c>
       <c r="B12">
-        <v>77.135257999999993</v>
+        <v>83.452298999999996</v>
       </c>
       <c r="C12">
-        <v>8.8146819999999995</v>
+        <v>4.3000249999999998</v>
       </c>
       <c r="D12">
-        <v>53.355504000000003</v>
+        <v>30.624555000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -9812,13 +9377,13 @@
         <v>2048</v>
       </c>
       <c r="B13">
-        <v>301.78080499999999</v>
+        <v>218.84779700000001</v>
       </c>
       <c r="C13">
-        <v>29.893321</v>
+        <v>6.9905140000000001</v>
       </c>
       <c r="D13">
-        <v>42.004382</v>
+        <v>39.927202000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9826,13 +9391,13 @@
         <v>4096</v>
       </c>
       <c r="B14">
-        <v>1210.980397</v>
+        <v>838.66672600000004</v>
       </c>
       <c r="C14">
-        <v>26.530649</v>
+        <v>10.001512</v>
       </c>
       <c r="D14">
-        <v>41.392315000000004</v>
+        <v>57.771582000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -9840,13 +9405,13 @@
         <v>8192</v>
       </c>
       <c r="B15">
-        <v>4693.4935349999996</v>
+        <v>3327.7246869999999</v>
       </c>
       <c r="C15">
-        <v>42.334212000000001</v>
+        <v>29.220761</v>
       </c>
       <c r="D15">
-        <v>51.575001</v>
+        <v>49.237313999999998</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -9854,13 +9419,13 @@
         <v>16384</v>
       </c>
       <c r="B16">
-        <v>21626.335812000001</v>
+        <v>14364.173427</v>
       </c>
       <c r="C16">
-        <v>158.793631</v>
+        <v>96.793245999999996</v>
       </c>
       <c r="D16">
-        <v>143.722005</v>
+        <v>163.55769799999999</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -9868,27 +9433,247 @@
         <v>32768</v>
       </c>
       <c r="B17">
-        <v>99777.367140000002</v>
+        <v>65375.500355999997</v>
       </c>
       <c r="C17">
-        <v>641.46601899999996</v>
+        <v>407.60148500000003</v>
       </c>
       <c r="D17">
-        <v>554.38410099999999</v>
+        <v>525.21791700000006</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>65536</v>
-      </c>
-      <c r="B18">
-        <v>467428.64517999999</v>
-      </c>
-      <c r="C18">
-        <v>2795.2289209999999</v>
-      </c>
-      <c r="D18">
-        <v>1846.660789</v>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4.7219999999999998E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.577931</v>
+      </c>
+      <c r="D2">
+        <v>3.0676009999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6.7608000000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>5.3656000000000002E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.6050000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>5.3696000000000001E-2</v>
+      </c>
+      <c r="C4">
+        <v>7.4798000000000003E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.36694199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.35636499999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.35963000000000001</v>
+      </c>
+      <c r="D5">
+        <v>1.7168490000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1.5262720000000001</v>
+      </c>
+      <c r="C6">
+        <v>1.5868249999999999</v>
+      </c>
+      <c r="D6">
+        <v>6.9535099999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>6.6619070000000002</v>
+      </c>
+      <c r="C7">
+        <v>5.8992839999999998</v>
+      </c>
+      <c r="D7">
+        <v>29.664919000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>23.938618000000002</v>
+      </c>
+      <c r="C8">
+        <v>11.979438</v>
+      </c>
+      <c r="D8">
+        <v>54.168595000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>17.243922000000001</v>
+      </c>
+      <c r="C9">
+        <v>7.6299739999999998</v>
+      </c>
+      <c r="D9">
+        <v>109.751535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>21.229586000000001</v>
+      </c>
+      <c r="C10">
+        <v>26.588889999999999</v>
+      </c>
+      <c r="D10">
+        <v>122.167559</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>512</v>
+      </c>
+      <c r="B11">
+        <v>83.093427000000005</v>
+      </c>
+      <c r="C11">
+        <v>95.080100999999999</v>
+      </c>
+      <c r="D11">
+        <v>207.403435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1024</v>
+      </c>
+      <c r="B12">
+        <v>297.59792399999998</v>
+      </c>
+      <c r="C12">
+        <v>218.35639499999999</v>
+      </c>
+      <c r="D12">
+        <v>674.55776900000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2048</v>
+      </c>
+      <c r="B13">
+        <v>1465.1331339999999</v>
+      </c>
+      <c r="C13">
+        <v>1253.880412</v>
+      </c>
+      <c r="D13">
+        <v>3156.0424349999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4096</v>
+      </c>
+      <c r="B14">
+        <v>7261.0126780000001</v>
+      </c>
+      <c r="C14">
+        <v>6202.6679770000001</v>
+      </c>
+      <c r="D14">
+        <v>13814.926885999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8192</v>
+      </c>
+      <c r="B15">
+        <v>37798.723587</v>
+      </c>
+      <c r="C15">
+        <v>39049.431132999998</v>
+      </c>
+      <c r="D15">
+        <v>74498.329536000005</v>
       </c>
     </row>
   </sheetData>

--- a/Tijdscomplexiteit algoritmen.xlsx
+++ b/Tijdscomplexiteit algoritmen.xlsx
@@ -9,15 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="s &lt;= 0,2" sheetId="1" r:id="rId1"/>
-    <sheet name="s &lt;= 0,15" sheetId="2" r:id="rId2"/>
+    <sheet name="s &lt;= 0,01" sheetId="5" r:id="rId1"/>
+    <sheet name="s &lt;= 0,2" sheetId="1" r:id="rId2"/>
     <sheet name="s &lt;= 0,1" sheetId="3" r:id="rId3"/>
     <sheet name="s &lt;= 0,5" sheetId="4" r:id="rId4"/>
-    <sheet name="s &lt;= 0,01" sheetId="5" r:id="rId5"/>
-    <sheet name="s &lt;= 1" sheetId="6" r:id="rId6"/>
+    <sheet name="s &lt;= 1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
     <t>N</t>
   </si>
@@ -153,7 +152,7 @@
               <a:rPr lang="nl-BE" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Doubeling experiment (max. lengte zijde = 0.2) </a:t>
+              <a:t>Doubeling experiment (max. lengte zijde = 0.01) </a:t>
             </a:r>
             <a:endParaRPr lang="nl-BE">
               <a:effectLst/>
@@ -202,7 +201,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'s &lt;= 0,2'!$B$1</c:f>
+              <c:f>'s &lt;= 0,01'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -237,115 +236,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,2'!$A$2:$A$38</c:f>
+              <c:f>'s &lt;= 0,01'!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
+                <c:ptCount val="16"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,2'!$B$2:$B$38</c:f>
+              <c:f>'s &lt;= 0,01'!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>4.7223000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.9347000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.9225E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.35874600000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.77075300000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.4476689999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.724685999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64.328180000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45.292262000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.154897999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>89.458753999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>409.24207899999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1698.683477</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8778.2531400000007</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36192.314450999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>231158.01998899999</c:v>
-                </c:pt>
+                <c:ptCount val="16"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -356,7 +259,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'s &lt;= 0,2'!$C$1</c:f>
+              <c:f>'s &lt;= 0,01'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -391,115 +294,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,2'!$A$2:$A$38</c:f>
+              <c:f>'s &lt;= 0,01'!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
+                <c:ptCount val="16"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,2'!$C$2:$C$38</c:f>
+              <c:f>'s &lt;= 0,01'!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>1.427926</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5888E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.8627999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25318400000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.46081499999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.766035</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5092669999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.058319000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.253195000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.791833</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35.258977999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>158.16474700000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>845.33772199999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2508.9897179999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20610.072639000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>94613.954494000005</c:v>
-                </c:pt>
+                <c:ptCount val="16"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -510,7 +317,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'s &lt;= 0,2'!$D$1</c:f>
+              <c:f>'s &lt;= 0,01'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -545,115 +352,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,2'!$A$2:$A$38</c:f>
+              <c:f>'s &lt;= 0,01'!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
+                <c:ptCount val="16"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,2'!$D$2:$D$38</c:f>
+              <c:f>'s &lt;= 0,01'!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>2.3958879999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.6593000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.30030099999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.67792300000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8269759999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.3838950000000008</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.409811999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>113.157793</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>82.311852999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65.254551000000006</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>109.60528600000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>342.60131000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1600.68336</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6551.8527519999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32770.112476000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160632.83349300001</c:v>
-                </c:pt>
+                <c:ptCount val="16"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -667,11 +378,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="380387520"/>
-        <c:axId val="380389480"/>
+        <c:axId val="346374352"/>
+        <c:axId val="346374744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="380387520"/>
+        <c:axId val="346374352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,62 +402,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nl-BE"/>
-                  <a:t>Aantal rechthoeken</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -784,12 +439,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="380389480"/>
+        <c:crossAx val="346374744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="380389480"/>
+        <c:axId val="346374744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -810,67 +465,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nl-BE"/>
-                  <a:t>Tijd</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="nl-BE" baseline="0"/>
-                  <a:t> in miliseconden</a:t>
-                </a:r>
-                <a:endParaRPr lang="nl-BE"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -908,7 +502,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="380387520"/>
+        <c:crossAx val="346374352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1004,7 +598,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Doubeling experiment (max. lengte zijde = 0.2) </a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1045,7 +668,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'s &lt;= 0,15'!$B$1</c:f>
+              <c:f>'s &lt;= 0,2'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1080,19 +703,115 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,15'!$A$2:$A$17</c:f>
+              <c:f>'s &lt;= 0,2'!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,15'!$B$2:$B$17</c:f>
+              <c:f>'s &lt;= 0,2'!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>4.7223000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9347000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9225E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35874600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77075300000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4476689999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.724685999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.328180000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.292262000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.154897999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.458753999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>409.24207899999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1698.683477</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8778.2531400000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36192.314450999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>231158.01998899999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1103,7 +822,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'s &lt;= 0,15'!$C$1</c:f>
+              <c:f>'s &lt;= 0,2'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1138,19 +857,115 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,15'!$A$2:$A$17</c:f>
+              <c:f>'s &lt;= 0,2'!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,15'!$C$2:$C$17</c:f>
+              <c:f>'s &lt;= 0,2'!$C$2:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1.427926</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5888E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8627999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25318400000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46081499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.766035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5092669999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.058319000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.253195000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.791833</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.258977999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>158.16474700000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>845.33772199999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2508.9897179999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20610.072639000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94613.954494000005</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1161,7 +976,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'s &lt;= 0,15'!$D$1</c:f>
+              <c:f>'s &lt;= 0,2'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1196,19 +1011,115 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,15'!$A$2:$A$17</c:f>
+              <c:f>'s &lt;= 0,2'!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'s &lt;= 0,15'!$D$2:$D$17</c:f>
+              <c:f>'s &lt;= 0,2'!$D$2:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>2.3958879999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6593000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30030099999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67792300000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8269759999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3838950000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.409811999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113.157793</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.311852999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65.254551000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>109.60528600000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>342.60131000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600.68336</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6551.8527519999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32770.112476000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160632.83349300001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1222,11 +1133,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381393168"/>
-        <c:axId val="381393560"/>
+        <c:axId val="348332632"/>
+        <c:axId val="348336160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381393168"/>
+        <c:axId val="348332632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,6 +1157,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Aantal rechthoeken</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1283,14 +1249,15 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381393560"/>
+        <c:crossAx val="348336160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381393560"/>
+        <c:axId val="348336160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1308,6 +1275,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Tijd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" baseline="0"/>
+                  <a:t> in miliseconden</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1345,7 +1372,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381393168"/>
+        <c:crossAx val="348332632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1359,7 +1386,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1551,48 +1577,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1602,48 +1586,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>4.7564000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.5287999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4037000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.18503700000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.70877900000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.1181920000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.320399</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>38.168233999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>81.207140999999993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>55.677205999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110.70790700000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>336.941979</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1254.2710689999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6064.0449719999997</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1693,48 +1635,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1744,48 +1644,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1.436591</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.2338999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.6154000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13947200000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.30831700000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0652280000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.2734230000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.6398919999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.760463</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21.503388000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.772409</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>46.178958000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>169.727439</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1071.7274709999999</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1835,48 +1693,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1886,48 +1702,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>2.3930609999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.4789000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.7446999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.534632</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.76494600000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8711630000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.8993739999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29.572732999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>92.853537000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>110.68758800000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>57.761842999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>122.928505</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>488.96915999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1714.084752</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1941,11 +1715,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381394736"/>
-        <c:axId val="381397480"/>
+        <c:axId val="348336552"/>
+        <c:axId val="348337336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381394736"/>
+        <c:axId val="348336552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2058,12 +1832,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381397480"/>
+        <c:crossAx val="348337336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381397480"/>
+        <c:axId val="348337336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2182,7 +1956,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381394736"/>
+        <c:crossAx val="348336552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2778,11 +2552,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381399048"/>
-        <c:axId val="381397872"/>
+        <c:axId val="348337728"/>
+        <c:axId val="348332240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381399048"/>
+        <c:axId val="348337728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2839,12 +2613,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381397872"/>
+        <c:crossAx val="348332240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381397872"/>
+        <c:axId val="348332240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2902,7 +2676,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381399048"/>
+        <c:crossAx val="348337728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3017,762 +2791,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="nl-BE" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Doubeling experiment (max. lengte zijde = 0.01) </a:t>
-            </a:r>
-            <a:endParaRPr lang="nl-BE">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'s &lt;= 0,01'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Algoritme1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'s &lt;= 0,01'!$A$2:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'s &lt;= 0,01'!$B$2:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>5.645E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.2980999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.8377000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.104503</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.41241499999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9496370000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.9433500000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.8813459999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.648192000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35.614581000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>83.452298999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>218.84779700000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>838.66672600000004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3327.7246869999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14364.173427</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>65375.500355999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'s &lt;= 0,01'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Algoritme2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'s &lt;= 0,01'!$A$2:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'s &lt;= 0,01'!$C$2:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>2.369049</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.8051999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2718000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0913000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14788999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.26359100000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.59809400000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2220909999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1430039999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.5008330000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.3000249999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.9905140000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.001512</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29.220761</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>96.793245999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>407.60148500000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'s &lt;= 0,01'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Algoritme3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'s &lt;= 0,01'!$A$2:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'s &lt;= 0,01'!$D$2:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>2.431098</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9391E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.4908999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.117566</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.47026499999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.62888500000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.185702</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.6930889999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.311778</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.609491999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30.624555000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>39.927202000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>57.771582000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>49.237313999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>163.55769799999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>525.21791700000006</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="433381208"/>
-        <c:axId val="433383952"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="433381208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="433383952"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="433383952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="433381208"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
               <a:rPr lang="nl-BE"/>
               <a:t>Doubeling experiment</a:t>
             </a:r>
@@ -3864,48 +2882,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3915,48 +2891,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>4.7219999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.7608000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.3696000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.35636499999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5262720000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.6619070000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.938618000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.243922000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21.229586000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>83.093427000000005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>297.59792399999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1465.1331339999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7261.0126780000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37798.723587</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4006,48 +2940,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4057,48 +2949,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.577931</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3656000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.4798000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.35963000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5868249999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.8992839999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.979438</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.6299739999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26.588889999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>95.080100999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>218.35639499999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1253.880412</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6202.6679770000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>39049.431132999998</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4148,48 +2998,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4199,48 +3007,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3.0676009999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.6050000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.36694199999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7168490000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.9535099999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.664919000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>54.168595000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>109.751535</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>122.167559</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>207.403435</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>674.55776900000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3156.0424349999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13814.926885999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>74498.329536000005</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4254,11 +3020,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429297352"/>
-        <c:axId val="429295784"/>
+        <c:axId val="346373960"/>
+        <c:axId val="346376704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="429297352"/>
+        <c:axId val="346373960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4371,12 +3137,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429295784"/>
+        <c:crossAx val="346376704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429295784"/>
+        <c:axId val="346376704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4495,7 +3261,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429297352"/>
+        <c:crossAx val="346373960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4776,46 +3542,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7396,523 +6122,42 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>335634</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>530388</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>32074</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7947,55 +6192,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafiek 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8056,51 +6266,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>300193</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>264574</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>129539</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafiek 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8385,6 +6560,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8642,42 +6856,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="A2" sqref="A2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8703,18 +6887,6 @@
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>4.7564000000000002E-2</v>
-      </c>
-      <c r="C2">
-        <v>1.436591</v>
-      </c>
-      <c r="D2">
-        <v>2.3930609999999999</v>
-      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -8723,18 +6895,6 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>6.5287999999999999E-2</v>
-      </c>
-      <c r="C3">
-        <v>5.2338999999999997E-2</v>
-      </c>
-      <c r="D3">
-        <v>4.4789000000000002E-2</v>
-      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -8743,18 +6903,6 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>5.4037000000000002E-2</v>
-      </c>
-      <c r="C4">
-        <v>5.6154000000000003E-2</v>
-      </c>
-      <c r="D4">
-        <v>8.7446999999999997E-2</v>
-      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -8763,18 +6911,6 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.18503700000000001</v>
-      </c>
-      <c r="C5">
-        <v>0.13947200000000001</v>
-      </c>
-      <c r="D5">
-        <v>0.534632</v>
-      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -8783,18 +6919,6 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>0.70877900000000005</v>
-      </c>
-      <c r="C6">
-        <v>0.30831700000000001</v>
-      </c>
-      <c r="D6">
-        <v>0.76494600000000001</v>
-      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -8803,18 +6927,6 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>3.1181920000000001</v>
-      </c>
-      <c r="C7">
-        <v>1.0652280000000001</v>
-      </c>
-      <c r="D7">
-        <v>3.8711630000000001</v>
-      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -8823,18 +6935,6 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>64</v>
-      </c>
-      <c r="B8">
-        <v>14.320399</v>
-      </c>
-      <c r="C8">
-        <v>3.2734230000000002</v>
-      </c>
-      <c r="D8">
-        <v>9.8993739999999999</v>
-      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -8843,18 +6943,6 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>128</v>
-      </c>
-      <c r="B9">
-        <v>38.168233999999998</v>
-      </c>
-      <c r="C9">
-        <v>6.6398919999999997</v>
-      </c>
-      <c r="D9">
-        <v>29.572732999999999</v>
-      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -8863,18 +6951,6 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>256</v>
-      </c>
-      <c r="B10">
-        <v>81.207140999999993</v>
-      </c>
-      <c r="C10">
-        <v>15.760463</v>
-      </c>
-      <c r="D10">
-        <v>92.853537000000003</v>
-      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -8883,80 +6959,12 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>512</v>
-      </c>
-      <c r="B11">
-        <v>55.677205999999998</v>
-      </c>
-      <c r="C11">
-        <v>21.503388000000001</v>
-      </c>
-      <c r="D11">
-        <v>110.68758800000001</v>
-      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1024</v>
-      </c>
-      <c r="B12">
-        <v>110.70790700000001</v>
-      </c>
-      <c r="C12">
-        <v>20.772409</v>
-      </c>
-      <c r="D12">
-        <v>57.761842999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2048</v>
-      </c>
-      <c r="B13">
-        <v>336.941979</v>
-      </c>
-      <c r="C13">
-        <v>46.178958000000002</v>
-      </c>
-      <c r="D13">
-        <v>122.928505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>4096</v>
-      </c>
-      <c r="B14">
-        <v>1254.2710689999999</v>
-      </c>
-      <c r="C14">
-        <v>169.727439</v>
-      </c>
-      <c r="D14">
-        <v>488.96915999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>8192</v>
-      </c>
-      <c r="B15">
-        <v>6064.0449719999997</v>
-      </c>
-      <c r="C15">
-        <v>1071.7274709999999</v>
-      </c>
-      <c r="D15">
-        <v>1714.084752</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8969,7 +6977,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+      <selection activeCell="E16" sqref="A2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9192,273 +7200,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>5.645E-2</v>
-      </c>
-      <c r="C2">
-        <v>2.369049</v>
-      </c>
-      <c r="D2">
-        <v>2.431098</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>6.2980999999999995E-2</v>
-      </c>
-      <c r="C3">
-        <v>4.8051999999999997E-2</v>
-      </c>
-      <c r="D3">
-        <v>2.9391E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>7.8377000000000002E-2</v>
-      </c>
-      <c r="C4">
-        <v>5.2718000000000001E-2</v>
-      </c>
-      <c r="D4">
-        <v>8.4908999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.104503</v>
-      </c>
-      <c r="C5">
-        <v>7.0913000000000004E-2</v>
-      </c>
-      <c r="D5">
-        <v>0.117566</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>0.41241499999999998</v>
-      </c>
-      <c r="C6">
-        <v>0.14788999999999999</v>
-      </c>
-      <c r="D6">
-        <v>0.47026499999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>1.9496370000000001</v>
-      </c>
-      <c r="C7">
-        <v>0.26359100000000002</v>
-      </c>
-      <c r="D7">
-        <v>0.62888500000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>64</v>
-      </c>
-      <c r="B8">
-        <v>2.9433500000000001</v>
-      </c>
-      <c r="C8">
-        <v>0.59809400000000001</v>
-      </c>
-      <c r="D8">
-        <v>2.185702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>128</v>
-      </c>
-      <c r="B9">
-        <v>6.8813459999999997</v>
-      </c>
-      <c r="C9">
-        <v>2.2220909999999998</v>
-      </c>
-      <c r="D9">
-        <v>5.6930889999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>256</v>
-      </c>
-      <c r="B10">
-        <v>16.648192000000002</v>
-      </c>
-      <c r="C10">
-        <v>1.1430039999999999</v>
-      </c>
-      <c r="D10">
-        <v>12.311778</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>512</v>
-      </c>
-      <c r="B11">
-        <v>35.614581000000001</v>
-      </c>
-      <c r="C11">
-        <v>1.5008330000000001</v>
-      </c>
-      <c r="D11">
-        <v>18.609491999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1024</v>
-      </c>
-      <c r="B12">
-        <v>83.452298999999996</v>
-      </c>
-      <c r="C12">
-        <v>4.3000249999999998</v>
-      </c>
-      <c r="D12">
-        <v>30.624555000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2048</v>
-      </c>
-      <c r="B13">
-        <v>218.84779700000001</v>
-      </c>
-      <c r="C13">
-        <v>6.9905140000000001</v>
-      </c>
-      <c r="D13">
-        <v>39.927202000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>4096</v>
-      </c>
-      <c r="B14">
-        <v>838.66672600000004</v>
-      </c>
-      <c r="C14">
-        <v>10.001512</v>
-      </c>
-      <c r="D14">
-        <v>57.771582000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>8192</v>
-      </c>
-      <c r="B15">
-        <v>3327.7246869999999</v>
-      </c>
-      <c r="C15">
-        <v>29.220761</v>
-      </c>
-      <c r="D15">
-        <v>49.237313999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>16384</v>
-      </c>
-      <c r="B16">
-        <v>14364.173427</v>
-      </c>
-      <c r="C16">
-        <v>96.793245999999996</v>
-      </c>
-      <c r="D16">
-        <v>163.55769799999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>32768</v>
-      </c>
-      <c r="B17">
-        <v>65375.500355999997</v>
-      </c>
-      <c r="C17">
-        <v>407.60148500000003</v>
-      </c>
-      <c r="D17">
-        <v>525.21791700000006</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9480,202 +7225,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>4.7219999999999998E-2</v>
-      </c>
-      <c r="C2">
-        <v>1.577931</v>
-      </c>
-      <c r="D2">
-        <v>3.0676009999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>6.7608000000000001E-2</v>
-      </c>
-      <c r="C3">
-        <v>5.3656000000000002E-2</v>
-      </c>
-      <c r="D3">
-        <v>4.6050000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>5.3696000000000001E-2</v>
-      </c>
-      <c r="C4">
-        <v>7.4798000000000003E-2</v>
-      </c>
-      <c r="D4">
-        <v>0.36694199999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.35636499999999999</v>
-      </c>
-      <c r="C5">
-        <v>0.35963000000000001</v>
-      </c>
-      <c r="D5">
-        <v>1.7168490000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>1.5262720000000001</v>
-      </c>
-      <c r="C6">
-        <v>1.5868249999999999</v>
-      </c>
-      <c r="D6">
-        <v>6.9535099999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>6.6619070000000002</v>
-      </c>
-      <c r="C7">
-        <v>5.8992839999999998</v>
-      </c>
-      <c r="D7">
-        <v>29.664919000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>64</v>
-      </c>
-      <c r="B8">
-        <v>23.938618000000002</v>
-      </c>
-      <c r="C8">
-        <v>11.979438</v>
-      </c>
-      <c r="D8">
-        <v>54.168595000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>128</v>
-      </c>
-      <c r="B9">
-        <v>17.243922000000001</v>
-      </c>
-      <c r="C9">
-        <v>7.6299739999999998</v>
-      </c>
-      <c r="D9">
-        <v>109.751535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>256</v>
-      </c>
-      <c r="B10">
-        <v>21.229586000000001</v>
-      </c>
-      <c r="C10">
-        <v>26.588889999999999</v>
-      </c>
-      <c r="D10">
-        <v>122.167559</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>512</v>
-      </c>
-      <c r="B11">
-        <v>83.093427000000005</v>
-      </c>
-      <c r="C11">
-        <v>95.080100999999999</v>
-      </c>
-      <c r="D11">
-        <v>207.403435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1024</v>
-      </c>
-      <c r="B12">
-        <v>297.59792399999998</v>
-      </c>
-      <c r="C12">
-        <v>218.35639499999999</v>
-      </c>
-      <c r="D12">
-        <v>674.55776900000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2048</v>
-      </c>
-      <c r="B13">
-        <v>1465.1331339999999</v>
-      </c>
-      <c r="C13">
-        <v>1253.880412</v>
-      </c>
-      <c r="D13">
-        <v>3156.0424349999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>4096</v>
-      </c>
-      <c r="B14">
-        <v>7261.0126780000001</v>
-      </c>
-      <c r="C14">
-        <v>6202.6679770000001</v>
-      </c>
-      <c r="D14">
-        <v>13814.926885999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>8192</v>
-      </c>
-      <c r="B15">
-        <v>37798.723587</v>
-      </c>
-      <c r="C15">
-        <v>39049.431132999998</v>
-      </c>
-      <c r="D15">
-        <v>74498.329536000005</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Tijdscomplexiteit algoritmen.xlsx
+++ b/Tijdscomplexiteit algoritmen.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="s &lt;= 0,01" sheetId="5" r:id="rId1"/>
-    <sheet name="s &lt;= 0,2" sheetId="1" r:id="rId2"/>
-    <sheet name="s &lt;= 0,1" sheetId="3" r:id="rId3"/>
+    <sheet name="s &lt;= 0,1" sheetId="3" r:id="rId2"/>
+    <sheet name="s &lt;= 0,2" sheetId="1" r:id="rId3"/>
     <sheet name="s &lt;= 0,5" sheetId="4" r:id="rId4"/>
     <sheet name="s &lt;= 1" sheetId="6" r:id="rId5"/>
   </sheets>
@@ -240,6 +240,54 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -249,6 +297,54 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5.5516999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6510999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9249000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16561899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79310400000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2871619999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1092139999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2961150000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.111768999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.772381000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.574263000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>205.43500399999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>820.38240699999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3289.07998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15940.149552000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67381.763546999995</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -298,6 +394,54 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -307,6 +451,54 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.284362</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7646999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2980999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12456399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22673399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29065000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63634999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2836959999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2044309999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0112190000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6268189999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0782220000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.974940999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.238512</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>102.424753</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>460.93494900000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -356,6 +548,54 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -365,6 +605,54 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.2829630000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9715999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16142000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20200899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50198900000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74785000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7746869999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9979339999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2076510000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9634330000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2643680000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.793704999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.557507999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.914204000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65.278081</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>225.832246</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -378,11 +666,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="346374352"/>
-        <c:axId val="346374744"/>
+        <c:axId val="353034960"/>
+        <c:axId val="353031824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="346374352"/>
+        <c:axId val="353034960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,6 +690,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Aantal rechthoeken</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -439,12 +783,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346374744"/>
+        <c:crossAx val="353031824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="346374744"/>
+        <c:axId val="353031824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -465,6 +809,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Tijd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" baseline="0"/>
+                  <a:t> in miliseconden</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -502,7 +907,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346374352"/>
+        <c:crossAx val="353034960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -620,875 +1025,6 @@
               <a:rPr lang="nl-BE" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Doubeling experiment (max. lengte zijde = 0.2) </a:t>
-            </a:r>
-            <a:endParaRPr lang="nl-BE">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'s &lt;= 0,2'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Algoritme1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'s &lt;= 0,2'!$A$2:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'s &lt;= 0,2'!$B$2:$B$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>4.7223000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.9347000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.9225E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.35874600000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.77075300000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.4476689999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.724685999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64.328180000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45.292262000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.154897999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>89.458753999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>409.24207899999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1698.683477</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8778.2531400000007</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36192.314450999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>231158.01998899999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'s &lt;= 0,2'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Algoritme2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'s &lt;= 0,2'!$A$2:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'s &lt;= 0,2'!$C$2:$C$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>1.427926</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5888E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.8627999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25318400000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.46081499999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.766035</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5092669999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.058319000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.253195000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.791833</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35.258977999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>158.16474700000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>845.33772199999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2508.9897179999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20610.072639000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>94613.954494000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'s &lt;= 0,2'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Algoritme3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'s &lt;= 0,2'!$A$2:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'s &lt;= 0,2'!$D$2:$D$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>2.3958879999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.6593000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.30030099999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.67792300000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8269759999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.3838950000000008</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.409811999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>113.157793</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>82.311852999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65.254551000000006</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>109.60528600000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>342.60131000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1600.68336</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6551.8527519999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32770.112476000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160632.83349300001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="348332632"/>
-        <c:axId val="348336160"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="348332632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nl-BE"/>
-                  <a:t>Aantal rechthoeken</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="348336160"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="348336160"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nl-BE"/>
-                  <a:t>Tijd</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="nl-BE" baseline="0"/>
-                  <a:t> in miliseconden</a:t>
-                </a:r>
-                <a:endParaRPr lang="nl-BE"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="348332632"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nl-BE" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
               <a:t>Doubeling experiment (max. lengte zijde = 0.1) </a:t>
             </a:r>
             <a:endParaRPr lang="nl-BE">
@@ -1577,6 +1113,54 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1586,6 +1170,54 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.645E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6451000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0324E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15068999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67367200000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0622929999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6431480000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9315090000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.048589</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.110174000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.222920000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>258.82211899999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1073.4199960000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4403.0896540000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22048.870620000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84398.026849999995</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1635,6 +1267,54 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1644,6 +1324,54 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.794281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6186999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0324E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18474699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28271800000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39375300000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.137872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9076489999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9419950000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6436820000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8930319999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.101796</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128.773077</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>686.64916300000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2393.8336610000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13215.184121</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1693,6 +1421,54 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1702,6 +1478,54 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>34.192126000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2981999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4239000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42687700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57663399999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0319689999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5125409999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5906960000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9849160000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.023949</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.467199999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.625889000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>178.02485300000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>660.72211700000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3076.5924129999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16846.653752999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1715,11 +1539,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348336552"/>
-        <c:axId val="348337336"/>
+        <c:axId val="120001096"/>
+        <c:axId val="358811192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348336552"/>
+        <c:axId val="120001096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1832,12 +1656,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348337336"/>
+        <c:crossAx val="358811192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348337336"/>
+        <c:axId val="358811192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1956,7 +1780,880 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348336552"/>
+        <c:crossAx val="120001096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Doubeling experiment (max. lengte zijde = 0.2) </a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'s &lt;= 0,2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,2'!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,2'!$B$2:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>5.9249999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6248000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4178999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36109599999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3944639999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2993139999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1850589999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.929355999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.363212000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.527500000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>299.55502100000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1506.006132</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6105.5472520000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28894.072992000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>135742.56441399999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'s &lt;= 0,2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,2'!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,2'!$C$2:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1.410793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2718000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6248000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.101704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.223469</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.771177</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4325200000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0100639999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9846940000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.022172999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.332107999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103.923721</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>393.32140900000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3019.2715010000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11622.362928</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71600.533431999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'s &lt;= 0,2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algoritme3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,2'!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'s &lt;= 0,2'!$D$2:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1.253571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2778999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19594300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.218337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61815500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8745259999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3564530000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9609229999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7134169999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.180972000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68.046481</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>169.24192300000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>580.501485</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2943.1852749999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17320.177598999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>93547.987473999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="353032608"/>
+        <c:axId val="353034568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="353032608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Aantal rechthoeken</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353034568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="353034568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Tijd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" baseline="0"/>
+                  <a:t> in miliseconden</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353032608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2162,48 +2859,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2213,48 +2868,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>4.8724999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.1363999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.168628</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.26247799999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.99839199999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.2498670000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.197941999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39.287708000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.915521999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44.288040000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>232.675746</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>719.36715600000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3616.9899890000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25021.587320999999</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2304,48 +2917,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2355,48 +2926,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1.455031</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3491999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.163637</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.239428</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.75213399999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.1842050000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.3604909999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.270868</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22.238222</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24.209389000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>130.66936999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>889.46861200000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2740.3895769999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14273.761823999999</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2446,48 +2975,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2497,48 +2984,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>2.3989180000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.6182000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94386199999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.04775</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.7222439999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.027664000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>34.721263999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90.492977999999994</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>165.07508000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100.277074</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>375.95076599999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1473.214066</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6566.0274239999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>38077.786604000001</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2552,11 +2997,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348337728"/>
-        <c:axId val="348332240"/>
+        <c:axId val="358811976"/>
+        <c:axId val="358813544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348337728"/>
+        <c:axId val="358811976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,12 +3058,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348332240"/>
+        <c:crossAx val="358813544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348332240"/>
+        <c:axId val="358813544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2676,7 +3121,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348337728"/>
+        <c:crossAx val="358811976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3020,11 +3465,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="346373960"/>
-        <c:axId val="346376704"/>
+        <c:axId val="358812368"/>
+        <c:axId val="358813936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="346373960"/>
+        <c:axId val="358812368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,12 +3582,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346376704"/>
+        <c:crossAx val="358813936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="346376704"/>
+        <c:axId val="358813936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3261,7 +3706,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346373960"/>
+        <c:crossAx val="358812368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6126,16 +6571,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>335634</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>88604</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>530388</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>32074</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>135920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6161,16 +6606,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6196,16 +6641,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6562,8 +7007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6586,7 +7031,245 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5.5516999999999997E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.284362</v>
+      </c>
+      <c r="D2">
+        <v>1.2829630000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7.6510999999999996E-2</v>
+      </c>
+      <c r="C3">
+        <v>6.7646999999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>5.9715999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>5.9249000000000003E-2</v>
+      </c>
+      <c r="C4">
+        <v>6.2980999999999995E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.16142000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.16561899999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.12456399999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.20200899999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0.79310400000000003</v>
+      </c>
+      <c r="C6">
+        <v>0.22673399999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.50198900000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>1.2871619999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.29065000000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.74785000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>4.1092139999999997</v>
+      </c>
+      <c r="C8">
+        <v>0.63634999999999997</v>
+      </c>
+      <c r="D8">
+        <v>1.7746869999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>9.2961150000000004</v>
+      </c>
+      <c r="C9">
+        <v>4.2836959999999999</v>
+      </c>
+      <c r="D9">
+        <v>2.9979339999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>24.111768999999999</v>
+      </c>
+      <c r="C10">
+        <v>8.2044309999999996</v>
+      </c>
+      <c r="D10">
+        <v>4.2076510000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>512</v>
+      </c>
+      <c r="B11">
+        <v>45.772381000000003</v>
+      </c>
+      <c r="C11">
+        <v>2.0112190000000001</v>
+      </c>
+      <c r="D11">
+        <v>4.9634330000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1024</v>
+      </c>
+      <c r="B12">
+        <v>80.574263000000002</v>
+      </c>
+      <c r="C12">
+        <v>3.6268189999999998</v>
+      </c>
+      <c r="D12">
+        <v>7.2643680000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2048</v>
+      </c>
+      <c r="B13">
+        <v>205.43500399999999</v>
+      </c>
+      <c r="C13">
+        <v>7.0782220000000002</v>
+      </c>
+      <c r="D13">
+        <v>12.793704999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4096</v>
+      </c>
+      <c r="B14">
+        <v>820.38240699999994</v>
+      </c>
+      <c r="C14">
+        <v>11.974940999999999</v>
+      </c>
+      <c r="D14">
+        <v>21.557507999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8192</v>
+      </c>
+      <c r="B15">
+        <v>3289.07998</v>
+      </c>
+      <c r="C15">
+        <v>31.238512</v>
+      </c>
+      <c r="D15">
+        <v>24.914204000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16384</v>
+      </c>
+      <c r="B16">
+        <v>15940.149552000001</v>
+      </c>
+      <c r="C16">
+        <v>102.424753</v>
+      </c>
+      <c r="D16">
+        <v>65.278081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>32768</v>
+      </c>
+      <c r="B17">
+        <v>67381.763546999995</v>
+      </c>
+      <c r="C17">
+        <v>460.93494900000002</v>
+      </c>
+      <c r="D17">
+        <v>225.832246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>65536</v>
+      </c>
+      <c r="B18">
+        <v>285255.70148599998</v>
+      </c>
+      <c r="C18">
+        <v>1555.753831</v>
+      </c>
+      <c r="D18">
+        <v>747.09443899999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -6599,10 +7282,330 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5.645E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.794281</v>
+      </c>
+      <c r="D2">
+        <v>34.192126000000002</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5.6451000000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>4.6186999999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>6.2981999999999996E-2</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3.0324E-2</v>
+      </c>
+      <c r="C4">
+        <v>3.0324E-2</v>
+      </c>
+      <c r="D4">
+        <v>9.4239000000000003E-2</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.15068999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.18474699999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.42687700000000001</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0.67367200000000005</v>
+      </c>
+      <c r="C6">
+        <v>0.28271800000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.57663399999999998</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>1.0622929999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.39375300000000002</v>
+      </c>
+      <c r="D7">
+        <v>1.0319689999999999</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>3.6431480000000001</v>
+      </c>
+      <c r="C8">
+        <v>1.137872</v>
+      </c>
+      <c r="D8">
+        <v>5.5125409999999997</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>7.9315090000000001</v>
+      </c>
+      <c r="C9">
+        <v>1.9076489999999999</v>
+      </c>
+      <c r="D9">
+        <v>6.5906960000000003</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>27.048589</v>
+      </c>
+      <c r="C10">
+        <v>6.9419950000000004</v>
+      </c>
+      <c r="D10">
+        <v>6.9849160000000001</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>512</v>
+      </c>
+      <c r="B11">
+        <v>69.110174000000001</v>
+      </c>
+      <c r="C11">
+        <v>9.6436820000000001</v>
+      </c>
+      <c r="D11">
+        <v>14.023949</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1024</v>
+      </c>
+      <c r="B12">
+        <v>76.222920000000002</v>
+      </c>
+      <c r="C12">
+        <v>8.8930319999999998</v>
+      </c>
+      <c r="D12">
+        <v>18.467199999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2048</v>
+      </c>
+      <c r="B13">
+        <v>258.82211899999999</v>
+      </c>
+      <c r="C13">
+        <v>29.101796</v>
+      </c>
+      <c r="D13">
+        <v>45.625889000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4096</v>
+      </c>
+      <c r="B14">
+        <v>1073.4199960000001</v>
+      </c>
+      <c r="C14">
+        <v>128.773077</v>
+      </c>
+      <c r="D14">
+        <v>178.02485300000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8192</v>
+      </c>
+      <c r="B15">
+        <v>4403.0896540000003</v>
+      </c>
+      <c r="C15">
+        <v>686.64916300000004</v>
+      </c>
+      <c r="D15">
+        <v>660.72211700000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16384</v>
+      </c>
+      <c r="B16">
+        <v>22048.870620000002</v>
+      </c>
+      <c r="C16">
+        <v>2393.8336610000001</v>
+      </c>
+      <c r="D16">
+        <v>3076.5924129999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>32768</v>
+      </c>
+      <c r="B17">
+        <v>84398.026849999995</v>
+      </c>
+      <c r="C17">
+        <v>13215.184121</v>
+      </c>
+      <c r="D17">
+        <v>16846.653752999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="B2" sqref="B2:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6630,13 +7633,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>4.7223000000000001E-2</v>
+        <v>5.9249999999999997E-2</v>
       </c>
       <c r="C2" s="2">
-        <v>1.427926</v>
+        <v>1.410793</v>
       </c>
       <c r="D2" s="2">
-        <v>2.3958879999999998</v>
+        <v>1.253571</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -6644,13 +7647,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>6.9347000000000006E-2</v>
+        <v>6.6248000000000001E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>5.5888E-2</v>
+        <v>5.2718000000000001E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>4.6593000000000002E-2</v>
+        <v>7.2778999999999996E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -6658,13 +7661,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>5.9225E-2</v>
+        <v>7.4178999999999995E-2</v>
       </c>
       <c r="C4" s="2">
-        <v>6.8627999999999995E-2</v>
+        <v>6.6248000000000001E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>0.30030099999999998</v>
+        <v>0.19594300000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -6672,13 +7675,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>0.35874600000000001</v>
+        <v>0.11849999999999999</v>
       </c>
       <c r="C5" s="2">
-        <v>0.25318400000000002</v>
+        <v>0.101704</v>
       </c>
       <c r="D5" s="2">
-        <v>0.67792300000000005</v>
+        <v>0.218337</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -6686,13 +7689,13 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>0.77075300000000002</v>
+        <v>0.36109599999999997</v>
       </c>
       <c r="C6" s="2">
-        <v>0.46081499999999997</v>
+        <v>0.223469</v>
       </c>
       <c r="D6" s="2">
-        <v>1.8269759999999999</v>
+        <v>0.61815500000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -6700,13 +7703,13 @@
         <v>32</v>
       </c>
       <c r="B7" s="2">
-        <v>3.4476689999999999</v>
+        <v>1.3944639999999999</v>
       </c>
       <c r="C7" s="2">
-        <v>1.766035</v>
+        <v>0.771177</v>
       </c>
       <c r="D7" s="2">
-        <v>8.3838950000000008</v>
+        <v>1.8745259999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -6714,13 +7717,13 @@
         <v>64</v>
       </c>
       <c r="B8" s="2">
-        <v>16.724685999999998</v>
+        <v>3.2993139999999999</v>
       </c>
       <c r="C8" s="2">
-        <v>3.5092669999999999</v>
+        <v>4.4325200000000002</v>
       </c>
       <c r="D8" s="2">
-        <v>16.409811999999999</v>
+        <v>2.3564530000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -6728,13 +7731,13 @@
         <v>128</v>
       </c>
       <c r="B9" s="2">
-        <v>64.328180000000003</v>
+        <v>7.1850589999999999</v>
       </c>
       <c r="C9" s="2">
-        <v>17.058319000000001</v>
+        <v>3.0100639999999999</v>
       </c>
       <c r="D9" s="2">
-        <v>113.157793</v>
+        <v>9.9609229999999993</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -6742,13 +7745,13 @@
         <v>256</v>
       </c>
       <c r="B10" s="2">
-        <v>45.292262000000001</v>
+        <v>23.929355999999999</v>
       </c>
       <c r="C10" s="2">
-        <v>16.253195000000002</v>
+        <v>7.9846940000000002</v>
       </c>
       <c r="D10" s="2">
-        <v>82.311852999999999</v>
+        <v>8.7134169999999997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -6756,13 +7759,13 @@
         <v>512</v>
       </c>
       <c r="B11" s="2">
-        <v>28.154897999999999</v>
+        <v>64.363212000000004</v>
       </c>
       <c r="C11" s="2">
-        <v>14.791833</v>
+        <v>22.022172999999999</v>
       </c>
       <c r="D11" s="2">
-        <v>65.254551000000006</v>
+        <v>17.180972000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -6770,13 +7773,13 @@
         <v>1024</v>
       </c>
       <c r="B12" s="2">
-        <v>89.458753999999999</v>
+        <v>91.527500000000003</v>
       </c>
       <c r="C12" s="2">
-        <v>35.258977999999999</v>
+        <v>36.332107999999998</v>
       </c>
       <c r="D12" s="2">
-        <v>109.60528600000001</v>
+        <v>68.046481</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -6784,13 +7787,13 @@
         <v>2048</v>
       </c>
       <c r="B13" s="2">
-        <v>409.24207899999999</v>
+        <v>299.55502100000001</v>
       </c>
       <c r="C13" s="2">
-        <v>158.16474700000001</v>
+        <v>103.923721</v>
       </c>
       <c r="D13" s="2">
-        <v>342.60131000000001</v>
+        <v>169.24192300000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -6798,13 +7801,13 @@
         <v>4096</v>
       </c>
       <c r="B14" s="2">
-        <v>1698.683477</v>
+        <v>1506.006132</v>
       </c>
       <c r="C14" s="2">
-        <v>845.33772199999999</v>
+        <v>393.32140900000002</v>
       </c>
       <c r="D14" s="2">
-        <v>1600.68336</v>
+        <v>580.501485</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -6812,13 +7815,13 @@
         <v>8192</v>
       </c>
       <c r="B15" s="2">
-        <v>8778.2531400000007</v>
+        <v>6105.5472520000003</v>
       </c>
       <c r="C15" s="2">
-        <v>2508.9897179999998</v>
+        <v>3019.2715010000002</v>
       </c>
       <c r="D15" s="2">
-        <v>6551.8527519999998</v>
+        <v>2943.1852749999998</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -6826,13 +7829,13 @@
         <v>16384</v>
       </c>
       <c r="B16" s="2">
-        <v>36192.314450999998</v>
+        <v>28894.072992000001</v>
       </c>
       <c r="C16" s="2">
-        <v>20610.072639000002</v>
+        <v>11622.362928</v>
       </c>
       <c r="D16" s="2">
-        <v>32770.112476000002</v>
+        <v>17320.177598999999</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -6840,13 +7843,13 @@
         <v>32768</v>
       </c>
       <c r="B17">
-        <v>231158.01998899999</v>
+        <v>135742.56441399999</v>
       </c>
       <c r="C17">
-        <v>94613.954494000005</v>
+        <v>71600.533431999997</v>
       </c>
       <c r="D17">
-        <v>160632.83349300001</v>
+        <v>93547.987473999994</v>
       </c>
     </row>
   </sheetData>
@@ -6856,128 +7859,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="A2:E16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6994,202 +7881,6 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>4.8724999999999997E-2</v>
-      </c>
-      <c r="C2">
-        <v>1.455031</v>
-      </c>
-      <c r="D2">
-        <v>2.3989180000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>7.1363999999999997E-2</v>
-      </c>
-      <c r="C3">
-        <v>5.3491999999999998E-2</v>
-      </c>
-      <c r="D3">
-        <v>4.6182000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0.168628</v>
-      </c>
-      <c r="C4">
-        <v>0.163637</v>
-      </c>
-      <c r="D4">
-        <v>0.94386199999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.26247799999999999</v>
-      </c>
-      <c r="C5">
-        <v>0.239428</v>
-      </c>
-      <c r="D5">
-        <v>1.04775</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>0.99839199999999995</v>
-      </c>
-      <c r="C6">
-        <v>0.75213399999999997</v>
-      </c>
-      <c r="D6">
-        <v>3.7222439999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>5.2498670000000001</v>
-      </c>
-      <c r="C7">
-        <v>4.1842050000000004</v>
-      </c>
-      <c r="D7">
-        <v>20.027664000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>64</v>
-      </c>
-      <c r="B8">
-        <v>13.197941999999999</v>
-      </c>
-      <c r="C8">
-        <v>7.3604909999999997</v>
-      </c>
-      <c r="D8">
-        <v>34.721263999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>128</v>
-      </c>
-      <c r="B9">
-        <v>39.287708000000002</v>
-      </c>
-      <c r="C9">
-        <v>22.270868</v>
-      </c>
-      <c r="D9">
-        <v>90.492977999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>256</v>
-      </c>
-      <c r="B10">
-        <v>16.915521999999999</v>
-      </c>
-      <c r="C10">
-        <v>22.238222</v>
-      </c>
-      <c r="D10">
-        <v>165.07508000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>512</v>
-      </c>
-      <c r="B11">
-        <v>44.288040000000002</v>
-      </c>
-      <c r="C11">
-        <v>24.209389000000002</v>
-      </c>
-      <c r="D11">
-        <v>100.277074</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1024</v>
-      </c>
-      <c r="B12">
-        <v>232.675746</v>
-      </c>
-      <c r="C12">
-        <v>130.66936999999999</v>
-      </c>
-      <c r="D12">
-        <v>375.95076599999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2048</v>
-      </c>
-      <c r="B13">
-        <v>719.36715600000002</v>
-      </c>
-      <c r="C13">
-        <v>889.46861200000001</v>
-      </c>
-      <c r="D13">
-        <v>1473.214066</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>4096</v>
-      </c>
-      <c r="B14">
-        <v>3616.9899890000002</v>
-      </c>
-      <c r="C14">
-        <v>2740.3895769999999</v>
-      </c>
-      <c r="D14">
-        <v>6566.0274239999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>8192</v>
-      </c>
-      <c r="B15">
-        <v>25021.587320999999</v>
-      </c>
-      <c r="C15">
-        <v>14273.761823999999</v>
-      </c>
-      <c r="D15">
-        <v>38077.786604000001</v>
       </c>
     </row>
   </sheetData>
@@ -7202,7 +7893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D16"/>
     </sheetView>
   </sheetViews>

--- a/Tijdscomplexiteit algoritmen.xlsx
+++ b/Tijdscomplexiteit algoritmen.xlsx
@@ -160,7 +160,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -666,11 +665,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353034960"/>
-        <c:axId val="353031824"/>
+        <c:axId val="384017008"/>
+        <c:axId val="384019752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353034960"/>
+        <c:axId val="384017008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -716,7 +715,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -783,12 +781,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353031824"/>
+        <c:crossAx val="384019752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353031824"/>
+        <c:axId val="384019752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -840,7 +838,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -907,7 +904,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353034960"/>
+        <c:crossAx val="384017008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -921,7 +918,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1033,7 +1029,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1539,11 +1534,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="120001096"/>
-        <c:axId val="358811192"/>
+        <c:axId val="384013480"/>
+        <c:axId val="384012304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="120001096"/>
+        <c:axId val="384013480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1589,7 +1584,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1656,12 +1650,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358811192"/>
+        <c:crossAx val="384012304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="358811192"/>
+        <c:axId val="384012304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1713,7 +1707,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1780,7 +1773,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120001096"/>
+        <c:crossAx val="384013480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1794,7 +1787,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2412,11 +2404,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353032608"/>
-        <c:axId val="353034568"/>
+        <c:axId val="384018184"/>
+        <c:axId val="384018576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353032608"/>
+        <c:axId val="384018184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2529,12 +2521,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353034568"/>
+        <c:crossAx val="384018576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353034568"/>
+        <c:axId val="384018576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2653,7 +2645,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353032608"/>
+        <c:crossAx val="384018184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2859,6 +2851,51 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2868,6 +2905,51 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>3.4055000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7177000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1436000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28177200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.521092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6346529999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0794350000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1987220000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.498933000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.964055000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113.787948</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>475.85178999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3101.9357850000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10783.680533000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79128.792321000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2917,6 +2999,51 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2926,6 +3053,51 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.11216</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4318999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0036000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26497799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45064900000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87004199999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7006290000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3010280000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2719639999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.117128999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.658713000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>348.00555100000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2853.1182720000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8457.085943</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76308.018146999995</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2975,6 +3147,51 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2984,6 +3201,51 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.079971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5048E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14835100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64378400000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.907829</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0517129999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.683764</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4934860000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.301539999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.788215999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150.26952600000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>669.58702200000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2842.3073610000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15164.291896000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>113163.552943</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2997,11 +3259,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="358811976"/>
-        <c:axId val="358813544"/>
+        <c:axId val="378125888"/>
+        <c:axId val="378122752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="358811976"/>
+        <c:axId val="378125888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3058,12 +3320,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358813544"/>
+        <c:crossAx val="378122752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="358813544"/>
+        <c:axId val="378122752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3121,7 +3383,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358811976"/>
+        <c:crossAx val="378125888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3327,6 +3589,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3336,6 +3640,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.0585999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4642E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10589800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.171676</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.047782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.598265</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4981629999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8129179999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.548382</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.416826999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>177.753986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>754.93509600000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4556.3131679999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21305.155172999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3385,6 +3731,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3394,6 +3782,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.0104610000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2451999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10449799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18054000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53602000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2838369999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.953746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0217859999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.640635</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.522970000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>165.50808799999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>932.53653399999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4899.0690789999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18309.371027000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3443,6 +3873,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3452,6 +3924,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>113.571487</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2248999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.948882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42312499999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0916349999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1150880000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5250810000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9743310000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.447278000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.325927</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>264.41715399999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1610.2086469999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8083.4769020000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36376.691274999997</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3465,11 +3979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="358812368"/>
-        <c:axId val="358813936"/>
+        <c:axId val="378127848"/>
+        <c:axId val="378123144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="358812368"/>
+        <c:axId val="378127848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3582,12 +4096,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358813936"/>
+        <c:crossAx val="378123144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="358813936"/>
+        <c:axId val="378123144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3706,7 +4220,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358812368"/>
+        <c:crossAx val="378127848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6676,16 +7190,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>148814</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6711,16 +7225,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7861,10 +8375,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7881,6 +8395,216 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3.4055000000000002E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.11216</v>
+      </c>
+      <c r="D2">
+        <v>1.079971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6.7177000000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>4.4318999999999997E-2</v>
+      </c>
+      <c r="D3">
+        <v>5.5048E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>9.1436000000000003E-2</v>
+      </c>
+      <c r="C4">
+        <v>9.0036000000000005E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.14835100000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.28177200000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.26497799999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.64378400000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0.521092</v>
+      </c>
+      <c r="C6">
+        <v>0.45064900000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.907829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>1.6346529999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.87004199999999998</v>
+      </c>
+      <c r="D7">
+        <v>2.0517129999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>3.0794350000000001</v>
+      </c>
+      <c r="C8">
+        <v>2.7006290000000002</v>
+      </c>
+      <c r="D8">
+        <v>4.683764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>7.1987220000000001</v>
+      </c>
+      <c r="C9">
+        <v>3.3010280000000001</v>
+      </c>
+      <c r="D9">
+        <v>9.4934860000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>20.498933000000001</v>
+      </c>
+      <c r="C10">
+        <v>7.2719639999999997</v>
+      </c>
+      <c r="D10">
+        <v>15.301539999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>512</v>
+      </c>
+      <c r="B11">
+        <v>53.964055000000002</v>
+      </c>
+      <c r="C11">
+        <v>19.117128999999998</v>
+      </c>
+      <c r="D11">
+        <v>32.788215999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1024</v>
+      </c>
+      <c r="B12">
+        <v>113.787948</v>
+      </c>
+      <c r="C12">
+        <v>80.658713000000006</v>
+      </c>
+      <c r="D12">
+        <v>150.26952600000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2048</v>
+      </c>
+      <c r="B13">
+        <v>475.85178999999999</v>
+      </c>
+      <c r="C13">
+        <v>348.00555100000003</v>
+      </c>
+      <c r="D13">
+        <v>669.58702200000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4096</v>
+      </c>
+      <c r="B14">
+        <v>3101.9357850000001</v>
+      </c>
+      <c r="C14">
+        <v>2853.1182720000002</v>
+      </c>
+      <c r="D14">
+        <v>2842.3073610000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8192</v>
+      </c>
+      <c r="B15">
+        <v>10783.680533000001</v>
+      </c>
+      <c r="C15">
+        <v>8457.085943</v>
+      </c>
+      <c r="D15">
+        <v>15164.291896000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16384</v>
+      </c>
+      <c r="B16">
+        <v>79128.792321000001</v>
+      </c>
+      <c r="C16">
+        <v>76308.018146999995</v>
+      </c>
+      <c r="D16">
+        <v>113163.552943</v>
       </c>
     </row>
   </sheetData>
@@ -7891,10 +8615,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D16"/>
+      <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7916,6 +8640,202 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4.0585999999999997E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.0104610000000001</v>
+      </c>
+      <c r="D2">
+        <v>113.571487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7.4642E-2</v>
+      </c>
+      <c r="C3">
+        <v>4.2451999999999997E-2</v>
+      </c>
+      <c r="D3">
+        <v>5.2248999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.10589800000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.10449799999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.948882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.171676</v>
+      </c>
+      <c r="C5">
+        <v>0.18054000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.42312499999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1.047782</v>
+      </c>
+      <c r="C6">
+        <v>0.53602000000000005</v>
+      </c>
+      <c r="D6">
+        <v>1.0916349999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>1.598265</v>
+      </c>
+      <c r="C7">
+        <v>1.2838369999999999</v>
+      </c>
+      <c r="D7">
+        <v>4.1150880000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>2.4981629999999999</v>
+      </c>
+      <c r="C8">
+        <v>1.953746</v>
+      </c>
+      <c r="D8">
+        <v>6.5250810000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>6.8129179999999998</v>
+      </c>
+      <c r="C9">
+        <v>4.0217859999999996</v>
+      </c>
+      <c r="D9">
+        <v>6.9743310000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>20.548382</v>
+      </c>
+      <c r="C10">
+        <v>10.640635</v>
+      </c>
+      <c r="D10">
+        <v>23.447278000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>512</v>
+      </c>
+      <c r="B11">
+        <v>60.416826999999998</v>
+      </c>
+      <c r="C11">
+        <v>33.522970000000001</v>
+      </c>
+      <c r="D11">
+        <v>58.325927</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1024</v>
+      </c>
+      <c r="B12">
+        <v>177.753986</v>
+      </c>
+      <c r="C12">
+        <v>165.50808799999999</v>
+      </c>
+      <c r="D12">
+        <v>264.41715399999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2048</v>
+      </c>
+      <c r="B13">
+        <v>754.93509600000004</v>
+      </c>
+      <c r="C13">
+        <v>932.53653399999996</v>
+      </c>
+      <c r="D13">
+        <v>1610.2086469999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4096</v>
+      </c>
+      <c r="B14">
+        <v>4556.3131679999997</v>
+      </c>
+      <c r="C14">
+        <v>4899.0690789999999</v>
+      </c>
+      <c r="D14">
+        <v>8083.4769020000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8192</v>
+      </c>
+      <c r="B15">
+        <v>21305.155172999999</v>
+      </c>
+      <c r="C15">
+        <v>18309.371027000001</v>
+      </c>
+      <c r="D15">
+        <v>36376.691274999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Tijdscomplexiteit algoritmen.xlsx
+++ b/Tijdscomplexiteit algoritmen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="s &lt;= 0,01" sheetId="5" r:id="rId1"/>
@@ -665,11 +665,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="384017008"/>
-        <c:axId val="384019752"/>
+        <c:axId val="351539712"/>
+        <c:axId val="351534224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="384017008"/>
+        <c:axId val="351539712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,12 +781,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384019752"/>
+        <c:crossAx val="351534224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="384019752"/>
+        <c:axId val="351534224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -904,7 +904,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384017008"/>
+        <c:crossAx val="351539712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1534,11 +1534,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="384013480"/>
-        <c:axId val="384012304"/>
+        <c:axId val="359089848"/>
+        <c:axId val="359084752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="384013480"/>
+        <c:axId val="359089848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,12 +1650,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384012304"/>
+        <c:crossAx val="359084752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="384012304"/>
+        <c:axId val="359084752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1773,7 +1773,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384013480"/>
+        <c:crossAx val="359089848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1898,7 +1898,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2404,11 +2403,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="384018184"/>
-        <c:axId val="384018576"/>
+        <c:axId val="359084360"/>
+        <c:axId val="359085536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="384018184"/>
+        <c:axId val="359084360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2454,7 +2453,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2521,12 +2519,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384018576"/>
+        <c:crossAx val="359085536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="384018576"/>
+        <c:axId val="359085536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2578,7 +2576,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2645,7 +2642,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384018184"/>
+        <c:crossAx val="359084360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2659,7 +2656,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3259,11 +3255,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="378125888"/>
-        <c:axId val="378122752"/>
+        <c:axId val="359089064"/>
+        <c:axId val="359088280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="378125888"/>
+        <c:axId val="359089064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3320,12 +3316,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378122752"/>
+        <c:crossAx val="359088280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="378122752"/>
+        <c:axId val="359088280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3383,7 +3379,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378125888"/>
+        <c:crossAx val="359089064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3979,11 +3975,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="378127848"/>
-        <c:axId val="378123144"/>
+        <c:axId val="359090632"/>
+        <c:axId val="359088672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="378127848"/>
+        <c:axId val="359090632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4096,12 +4092,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378123144"/>
+        <c:crossAx val="359088672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="378123144"/>
+        <c:axId val="359088672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4220,7 +4216,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378127848"/>
+        <c:crossAx val="359090632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7225,16 +7221,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8377,8 +8373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8617,7 +8613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>

--- a/Tijdscomplexiteit algoritmen.xlsx
+++ b/Tijdscomplexiteit algoritmen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="s &lt;= 0,01" sheetId="5" r:id="rId1"/>
@@ -160,6 +160,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -665,11 +666,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="351539712"/>
-        <c:axId val="351534224"/>
+        <c:axId val="381685664"/>
+        <c:axId val="381686840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="351539712"/>
+        <c:axId val="381685664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,6 +716,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -781,12 +783,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351534224"/>
+        <c:crossAx val="381686840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="351534224"/>
+        <c:axId val="381686840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -838,6 +840,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -904,7 +907,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351539712"/>
+        <c:crossAx val="381685664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -918,6 +921,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1534,11 +1538,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359089848"/>
-        <c:axId val="359084752"/>
+        <c:axId val="5814016"/>
+        <c:axId val="383532720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="359089848"/>
+        <c:axId val="5814016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,12 +1654,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359084752"/>
+        <c:crossAx val="383532720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359084752"/>
+        <c:axId val="383532720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1773,7 +1777,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359089848"/>
+        <c:crossAx val="5814016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2403,11 +2407,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359084360"/>
-        <c:axId val="359085536"/>
+        <c:axId val="383536640"/>
+        <c:axId val="383531544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="359084360"/>
+        <c:axId val="383536640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2519,12 +2523,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359085536"/>
+        <c:crossAx val="383531544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359085536"/>
+        <c:axId val="383531544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2642,7 +2646,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359084360"/>
+        <c:crossAx val="383536640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2767,7 +2771,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3255,11 +3258,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359089064"/>
-        <c:axId val="359088280"/>
+        <c:axId val="383533112"/>
+        <c:axId val="383533896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="359089064"/>
+        <c:axId val="383533112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3316,12 +3319,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359088280"/>
+        <c:crossAx val="383533896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359088280"/>
+        <c:axId val="383533896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3379,7 +3382,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359089064"/>
+        <c:crossAx val="383533112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3393,7 +3396,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3975,11 +3977,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359090632"/>
-        <c:axId val="359088672"/>
+        <c:axId val="383529976"/>
+        <c:axId val="383530760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="359090632"/>
+        <c:axId val="383529976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4092,12 +4094,12 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359088672"/>
+        <c:crossAx val="383530760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359088672"/>
+        <c:axId val="383530760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4216,7 +4218,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359090632"/>
+        <c:crossAx val="383529976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7081,16 +7083,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>135920</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>90200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7517,8 +7519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8613,7 +8615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
